--- a/inst/extdata/c3_aci_2.xlsx
+++ b/inst/extdata/c3_aci_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eloch\Box Sync\Field Season 2021\2021-08-04 A-Ci curves\randomized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eloch\Documents\GitHub\licor-processing-and-analysis\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1378,9 +1378,6 @@
     <t>12:32:22</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>MPF-97-20210804-12_32_06</t>
   </si>
   <si>
@@ -1856,6 +1853,9 @@
   </si>
   <si>
     <t>13:50:03</t>
+  </si>
+  <si>
+    <t>5b</t>
   </si>
 </sst>
 </file>
@@ -2199,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN5" workbookViewId="0">
-      <selection activeCell="BZ11" sqref="BZ11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16706,7 +16706,7 @@
         <v>370</v>
       </c>
       <c r="H33" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I33" t="s">
         <v>360</v>
@@ -16844,7 +16844,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AT33">
         <v>10231.200000000001</v>
@@ -16887,7 +16887,7 @@
         <v>259.05679071758863</v>
       </c>
       <c r="BE33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BF33">
         <v>636.64</v>
@@ -17109,7 +17109,7 @@
         <v>1628184705</v>
       </c>
       <c r="DW33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="DX33">
         <v>1628184703</v>
@@ -17459,10 +17459,10 @@
         <v>9874</v>
       </c>
       <c r="D34" t="s">
+        <v>455</v>
+      </c>
+      <c r="E34" t="s">
         <v>456</v>
-      </c>
-      <c r="E34" t="s">
-        <v>457</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>370</v>
       </c>
       <c r="H34" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I34" t="s">
         <v>360</v>
@@ -17609,7 +17609,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AT34">
         <v>10227.799999999999</v>
@@ -17652,7 +17652,7 @@
         <v>254.77580750033593</v>
       </c>
       <c r="BE34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BF34">
         <v>622.79</v>
@@ -17874,7 +17874,7 @@
         <v>1628184816.5999999</v>
       </c>
       <c r="DW34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="DX34">
         <v>1628184811.5999999</v>
@@ -18224,10 +18224,10 @@
         <v>9992</v>
       </c>
       <c r="D35" t="s">
+        <v>460</v>
+      </c>
+      <c r="E35" t="s">
         <v>461</v>
-      </c>
-      <c r="E35" t="s">
-        <v>462</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>370</v>
       </c>
       <c r="H35" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I35" t="s">
         <v>360</v>
@@ -18374,7 +18374,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AT35">
         <v>10224.799999999999</v>
@@ -18417,7 +18417,7 @@
         <v>251.05167237961271</v>
       </c>
       <c r="BE35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BF35">
         <v>626.98</v>
@@ -18639,7 +18639,7 @@
         <v>1628184933.0999999</v>
       </c>
       <c r="DW35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="DX35">
         <v>1628184924.0999999</v>
@@ -18989,10 +18989,10 @@
         <v>10127</v>
       </c>
       <c r="D36" t="s">
+        <v>465</v>
+      </c>
+      <c r="E36" t="s">
         <v>466</v>
-      </c>
-      <c r="E36" t="s">
-        <v>467</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -19001,7 +19001,7 @@
         <v>370</v>
       </c>
       <c r="H36" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I36" t="s">
         <v>360</v>
@@ -19139,7 +19139,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AT36">
         <v>10222.200000000001</v>
@@ -19182,7 +19182,7 @@
         <v>248.69213363533615</v>
       </c>
       <c r="BE36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BF36">
         <v>621.62</v>
@@ -19404,7 +19404,7 @@
         <v>1628185067.0999999</v>
       </c>
       <c r="DW36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="DX36">
         <v>1628185054.0999999</v>
@@ -19754,10 +19754,10 @@
         <v>10253</v>
       </c>
       <c r="D37" t="s">
+        <v>470</v>
+      </c>
+      <c r="E37" t="s">
         <v>471</v>
-      </c>
-      <c r="E37" t="s">
-        <v>472</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -19766,7 +19766,7 @@
         <v>370</v>
       </c>
       <c r="H37" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I37" t="s">
         <v>360</v>
@@ -19904,7 +19904,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AT37">
         <v>10221.799999999999</v>
@@ -19947,7 +19947,7 @@
         <v>247.14718913540889</v>
       </c>
       <c r="BE37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BF37">
         <v>625.66</v>
@@ -20169,7 +20169,7 @@
         <v>1628185195.5999999</v>
       </c>
       <c r="DW37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="DX37">
         <v>1628185189.5999999</v>
@@ -20519,10 +20519,10 @@
         <v>10358</v>
       </c>
       <c r="D38" t="s">
+        <v>475</v>
+      </c>
+      <c r="E38" t="s">
         <v>476</v>
-      </c>
-      <c r="E38" t="s">
-        <v>477</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -20531,7 +20531,7 @@
         <v>370</v>
       </c>
       <c r="H38" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I38" t="s">
         <v>360</v>
@@ -20669,7 +20669,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AT38">
         <v>10222.299999999999</v>
@@ -20712,7 +20712,7 @@
         <v>246.08745157497424</v>
       </c>
       <c r="BE38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BF38">
         <v>627.41</v>
@@ -20934,7 +20934,7 @@
         <v>1628185298.0999999</v>
       </c>
       <c r="DW38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX38">
         <v>1628185290.5999999</v>
@@ -21284,10 +21284,10 @@
         <v>10470</v>
       </c>
       <c r="D39" t="s">
+        <v>480</v>
+      </c>
+      <c r="E39" t="s">
         <v>481</v>
-      </c>
-      <c r="E39" t="s">
-        <v>482</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -21296,7 +21296,7 @@
         <v>370</v>
       </c>
       <c r="H39" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I39" t="s">
         <v>360</v>
@@ -21434,7 +21434,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AT39">
         <v>10224</v>
@@ -21477,7 +21477,7 @@
         <v>245.02861077592402</v>
       </c>
       <c r="BE39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BF39">
         <v>623.45000000000005</v>
@@ -21699,7 +21699,7 @@
         <v>1628185410.0999999</v>
       </c>
       <c r="DW39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="DX39">
         <v>1628185402.0999999</v>
@@ -22049,10 +22049,10 @@
         <v>10576.5</v>
       </c>
       <c r="D40" t="s">
+        <v>485</v>
+      </c>
+      <c r="E40" t="s">
         <v>486</v>
-      </c>
-      <c r="E40" t="s">
-        <v>487</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -22061,7 +22061,7 @@
         <v>370</v>
       </c>
       <c r="H40" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I40" t="s">
         <v>360</v>
@@ -22199,7 +22199,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AT40">
         <v>10224.4</v>
@@ -22242,7 +22242,7 @@
         <v>244.01483271866974</v>
       </c>
       <c r="BE40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="BF40">
         <v>630.64</v>
@@ -22464,7 +22464,7 @@
         <v>1628185516.0999999</v>
       </c>
       <c r="DW40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="DX40">
         <v>1628185513.5999999</v>
@@ -22814,10 +22814,10 @@
         <v>10667</v>
       </c>
       <c r="D41" t="s">
+        <v>490</v>
+      </c>
+      <c r="E41" t="s">
         <v>491</v>
-      </c>
-      <c r="E41" t="s">
-        <v>492</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>370</v>
       </c>
       <c r="H41" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I41" t="s">
         <v>360</v>
@@ -22964,7 +22964,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AT41">
         <v>10225</v>
@@ -23007,7 +23007,7 @@
         <v>252.91710041878352</v>
       </c>
       <c r="BE41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="BF41">
         <v>593.69000000000005</v>
@@ -23229,7 +23229,7 @@
         <v>1628185672.5999999</v>
       </c>
       <c r="DW41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="DX41">
         <v>1628185670.5999999</v>
@@ -23579,10 +23579,10 @@
         <v>10829</v>
       </c>
       <c r="D42" t="s">
+        <v>495</v>
+      </c>
+      <c r="E42" t="s">
         <v>496</v>
-      </c>
-      <c r="E42" t="s">
-        <v>497</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>370</v>
       </c>
       <c r="H42" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I42" t="s">
         <v>360</v>
@@ -23729,7 +23729,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AT42">
         <v>10224.200000000001</v>
@@ -23772,7 +23772,7 @@
         <v>257.52357492523214</v>
       </c>
       <c r="BE42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="BF42">
         <v>617.33000000000004</v>
@@ -23994,7 +23994,7 @@
         <v>1628185769.0999999</v>
       </c>
       <c r="DW42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="DX42">
         <v>1628185764.0999999</v>
@@ -24344,10 +24344,10 @@
         <v>10951</v>
       </c>
       <c r="D43" t="s">
+        <v>500</v>
+      </c>
+      <c r="E43" t="s">
         <v>501</v>
-      </c>
-      <c r="E43" t="s">
-        <v>502</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -24356,7 +24356,7 @@
         <v>370</v>
       </c>
       <c r="H43" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I43" t="s">
         <v>360</v>
@@ -24494,7 +24494,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AT43">
         <v>10223.1</v>
@@ -24537,7 +24537,7 @@
         <v>262.6006779019566</v>
       </c>
       <c r="BE43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="BF43">
         <v>636.6</v>
@@ -24759,7 +24759,7 @@
         <v>1628185887.0999999</v>
       </c>
       <c r="DW43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="DX43">
         <v>1628185880.0999999</v>
@@ -25109,10 +25109,10 @@
         <v>11076</v>
       </c>
       <c r="D44" t="s">
+        <v>505</v>
+      </c>
+      <c r="E44" t="s">
         <v>506</v>
-      </c>
-      <c r="E44" t="s">
-        <v>507</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -25121,7 +25121,7 @@
         <v>370</v>
       </c>
       <c r="H44" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I44" t="s">
         <v>360</v>
@@ -25259,7 +25259,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AT44">
         <v>10221.1</v>
@@ -25302,7 +25302,7 @@
         <v>263.22714847326807</v>
       </c>
       <c r="BE44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="BF44">
         <v>633.09</v>
@@ -25524,7 +25524,7 @@
         <v>1628186002.0999999</v>
       </c>
       <c r="DW44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="DX44">
         <v>1628186002.0999999</v>
@@ -25874,10 +25874,10 @@
         <v>11227</v>
       </c>
       <c r="D45" t="s">
+        <v>510</v>
+      </c>
+      <c r="E45" t="s">
         <v>511</v>
-      </c>
-      <c r="E45" t="s">
-        <v>512</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -25886,7 +25886,7 @@
         <v>370</v>
       </c>
       <c r="H45" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I45" t="s">
         <v>360</v>
@@ -26024,7 +26024,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AT45">
         <v>10220.5</v>
@@ -26067,7 +26067,7 @@
         <v>262.89474332226445</v>
       </c>
       <c r="BE45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BF45">
         <v>636.22</v>
@@ -26289,7 +26289,7 @@
         <v>1628186116.0999999</v>
       </c>
       <c r="DW45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="DX45">
         <v>1628186116.0999999</v>
@@ -26639,10 +26639,10 @@
         <v>11407.5</v>
       </c>
       <c r="D46" t="s">
+        <v>515</v>
+      </c>
+      <c r="E46" t="s">
         <v>516</v>
-      </c>
-      <c r="E46" t="s">
-        <v>517</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -26651,7 +26651,7 @@
         <v>370</v>
       </c>
       <c r="H46" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I46" t="s">
         <v>360</v>
@@ -26789,7 +26789,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AT46">
         <v>10219.9</v>
@@ -26832,7 +26832,7 @@
         <v>262.23915014987438</v>
       </c>
       <c r="BE46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BF46">
         <v>628.91</v>
@@ -27054,7 +27054,7 @@
         <v>1628186277.0999999</v>
       </c>
       <c r="DW46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="DX46">
         <v>1628186277.0999999</v>
@@ -27404,10 +27404,10 @@
         <v>11527.9000000954</v>
       </c>
       <c r="D47" t="s">
+        <v>520</v>
+      </c>
+      <c r="E47" t="s">
         <v>521</v>
-      </c>
-      <c r="E47" t="s">
-        <v>522</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -27416,7 +27416,7 @@
         <v>370</v>
       </c>
       <c r="H47" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I47" t="s">
         <v>360</v>
@@ -27554,7 +27554,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AT47">
         <v>10220.9</v>
@@ -27597,7 +27597,7 @@
         <v>261.66366375673061</v>
       </c>
       <c r="BE47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="BF47">
         <v>623.59</v>
@@ -27819,7 +27819,7 @@
         <v>1628186456.0999999</v>
       </c>
       <c r="DW47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="DX47">
         <v>1628186456.0999999</v>
@@ -28169,10 +28169,10 @@
         <v>11654.4000000954</v>
       </c>
       <c r="D48" t="s">
+        <v>525</v>
+      </c>
+      <c r="E48" t="s">
         <v>526</v>
-      </c>
-      <c r="E48" t="s">
-        <v>527</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -28181,7 +28181,7 @@
         <v>370</v>
       </c>
       <c r="H48" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="I48" t="s">
         <v>360</v>
@@ -28319,7 +28319,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AT48">
         <v>10219.9</v>
@@ -28362,7 +28362,7 @@
         <v>257.78629479614375</v>
       </c>
       <c r="BE48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BF48">
         <v>609.42999999999995</v>
@@ -28584,7 +28584,7 @@
         <v>1628186586</v>
       </c>
       <c r="DW48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="DX48">
         <v>1628186586</v>
@@ -28934,16 +28934,16 @@
         <v>12669.4000000954</v>
       </c>
       <c r="D49" t="s">
+        <v>530</v>
+      </c>
+      <c r="E49" t="s">
         <v>531</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
         <v>532</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>533</v>
       </c>
       <c r="H49" t="s">
         <v>27</v>
@@ -29084,7 +29084,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AT49">
         <v>10365.1</v>
@@ -29127,7 +29127,7 @@
         <v>256.63896830447072</v>
       </c>
       <c r="BE49" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BF49">
         <v>577.75</v>
@@ -29349,7 +29349,7 @@
         <v>1628187611</v>
       </c>
       <c r="DW49" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="DX49">
         <v>1628187609</v>
@@ -29699,16 +29699,16 @@
         <v>12826.9000000954</v>
       </c>
       <c r="D50" t="s">
+        <v>536</v>
+      </c>
+      <c r="E50" t="s">
         <v>537</v>
       </c>
-      <c r="E50" t="s">
-        <v>538</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H50" t="s">
         <v>27</v>
@@ -29849,7 +29849,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS50" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AT50">
         <v>10366</v>
@@ -29892,7 +29892,7 @@
         <v>251.01636467302063</v>
       </c>
       <c r="BE50" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BF50">
         <v>556.78</v>
@@ -30114,7 +30114,7 @@
         <v>1628187768.5</v>
       </c>
       <c r="DW50" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="DX50">
         <v>1628187752.5</v>
@@ -30464,16 +30464,16 @@
         <v>12940.9000000954</v>
       </c>
       <c r="D51" t="s">
+        <v>541</v>
+      </c>
+      <c r="E51" t="s">
         <v>542</v>
       </c>
-      <c r="E51" t="s">
-        <v>543</v>
-      </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H51" t="s">
         <v>27</v>
@@ -30614,7 +30614,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AT51">
         <v>10364.700000000001</v>
@@ -30657,7 +30657,7 @@
         <v>244.41931720036203</v>
       </c>
       <c r="BE51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="BF51">
         <v>540.86</v>
@@ -30879,7 +30879,7 @@
         <v>1628187882.5</v>
       </c>
       <c r="DW51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="DX51">
         <v>1628187876</v>
@@ -31229,16 +31229,16 @@
         <v>13050.9000000954</v>
       </c>
       <c r="D52" t="s">
+        <v>546</v>
+      </c>
+      <c r="E52" t="s">
         <v>547</v>
       </c>
-      <c r="E52" t="s">
-        <v>548</v>
-      </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H52" t="s">
         <v>27</v>
@@ -31379,7 +31379,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS52" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AT52">
         <v>10362.799999999999</v>
@@ -31422,7 +31422,7 @@
         <v>240.60508815310865</v>
       </c>
       <c r="BE52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="BF52">
         <v>534.16</v>
@@ -31644,7 +31644,7 @@
         <v>1628187991</v>
       </c>
       <c r="DW52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="DX52">
         <v>1628187979</v>
@@ -31994,16 +31994,16 @@
         <v>13169.9000000954</v>
       </c>
       <c r="D53" t="s">
+        <v>551</v>
+      </c>
+      <c r="E53" t="s">
         <v>552</v>
       </c>
-      <c r="E53" t="s">
-        <v>553</v>
-      </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H53" t="s">
         <v>27</v>
@@ -32144,7 +32144,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS53" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AT53">
         <v>10360.700000000001</v>
@@ -32187,7 +32187,7 @@
         <v>237.38479209752731</v>
       </c>
       <c r="BE53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="BF53">
         <v>535.07000000000005</v>
@@ -32409,7 +32409,7 @@
         <v>1628188110</v>
       </c>
       <c r="DW53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="DX53">
         <v>1628188110</v>
@@ -32759,16 +32759,16 @@
         <v>13278</v>
       </c>
       <c r="D54" t="s">
+        <v>556</v>
+      </c>
+      <c r="E54" t="s">
         <v>557</v>
       </c>
-      <c r="E54" t="s">
-        <v>558</v>
-      </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H54" t="s">
         <v>27</v>
@@ -32909,7 +32909,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AT54">
         <v>10359.299999999999</v>
@@ -32952,7 +32952,7 @@
         <v>235.32538042042722</v>
       </c>
       <c r="BE54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BF54">
         <v>529.21</v>
@@ -33174,7 +33174,7 @@
         <v>1628188219.5</v>
       </c>
       <c r="DW54" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="DX54">
         <v>1628188219.5</v>
@@ -33524,16 +33524,16 @@
         <v>13381.5</v>
       </c>
       <c r="D55" t="s">
+        <v>561</v>
+      </c>
+      <c r="E55" t="s">
         <v>562</v>
       </c>
-      <c r="E55" t="s">
-        <v>563</v>
-      </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H55" t="s">
         <v>27</v>
@@ -33674,7 +33674,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS55" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT55">
         <v>10357.799999999999</v>
@@ -33717,7 +33717,7 @@
         <v>233.42116300880693</v>
       </c>
       <c r="BE55" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BF55">
         <v>541.05999999999995</v>
@@ -33939,7 +33939,7 @@
         <v>1628188322.5999999</v>
       </c>
       <c r="DW55" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="DX55">
         <v>1628188319.0999999</v>
@@ -34289,16 +34289,16 @@
         <v>13488.5</v>
       </c>
       <c r="D56" t="s">
+        <v>566</v>
+      </c>
+      <c r="E56" t="s">
         <v>567</v>
       </c>
-      <c r="E56" t="s">
-        <v>568</v>
-      </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H56" t="s">
         <v>27</v>
@@ -34439,7 +34439,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS56" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AT56">
         <v>10356.1</v>
@@ -34482,7 +34482,7 @@
         <v>231.48029916443915</v>
       </c>
       <c r="BE56" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="BF56">
         <v>540.27</v>
@@ -34704,7 +34704,7 @@
         <v>1628188428.5999999</v>
       </c>
       <c r="DW56" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="DX56">
         <v>1628188427.5999999</v>
@@ -35054,16 +35054,16 @@
         <v>13603.5</v>
       </c>
       <c r="D57" t="s">
+        <v>571</v>
+      </c>
+      <c r="E57" t="s">
         <v>572</v>
       </c>
-      <c r="E57" t="s">
-        <v>573</v>
-      </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H57" t="s">
         <v>27</v>
@@ -35204,7 +35204,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS57" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AT57">
         <v>10354.799999999999</v>
@@ -35247,7 +35247,7 @@
         <v>246.37502282435938</v>
       </c>
       <c r="BE57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BF57">
         <v>534.41</v>
@@ -35469,7 +35469,7 @@
         <v>1628188543.5999999</v>
       </c>
       <c r="DW57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="DX57">
         <v>1628188538.0999999</v>
@@ -35819,16 +35819,16 @@
         <v>13706.5</v>
       </c>
       <c r="D58" t="s">
+        <v>576</v>
+      </c>
+      <c r="E58" t="s">
         <v>577</v>
       </c>
-      <c r="E58" t="s">
-        <v>578</v>
-      </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H58" t="s">
         <v>27</v>
@@ -35969,7 +35969,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS58" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AT58">
         <v>10353.9</v>
@@ -36012,7 +36012,7 @@
         <v>248.96243945260423</v>
       </c>
       <c r="BE58" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BF58">
         <v>540.25</v>
@@ -36234,7 +36234,7 @@
         <v>1628188647.0999999</v>
       </c>
       <c r="DW58" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="DX58">
         <v>1628188645.0999999</v>
@@ -36584,16 +36584,16 @@
         <v>13809.5</v>
       </c>
       <c r="D59" t="s">
+        <v>581</v>
+      </c>
+      <c r="E59" t="s">
         <v>582</v>
       </c>
-      <c r="E59" t="s">
-        <v>583</v>
-      </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H59" t="s">
         <v>27</v>
@@ -36734,7 +36734,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS59" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AT59">
         <v>10356.200000000001</v>
@@ -36777,7 +36777,7 @@
         <v>255.62254822648927</v>
       </c>
       <c r="BE59" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BF59">
         <v>572.16</v>
@@ -36999,7 +36999,7 @@
         <v>1628188749.5999999</v>
       </c>
       <c r="DW59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="DX59">
         <v>1628188749.5999999</v>
@@ -37349,16 +37349,16 @@
         <v>13926.5</v>
       </c>
       <c r="D60" t="s">
+        <v>586</v>
+      </c>
+      <c r="E60" t="s">
         <v>587</v>
       </c>
-      <c r="E60" t="s">
-        <v>588</v>
-      </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H60" t="s">
         <v>27</v>
@@ -37499,7 +37499,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS60" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AT60">
         <v>10359.6</v>
@@ -37542,7 +37542,7 @@
         <v>258.06242768875495</v>
       </c>
       <c r="BE60" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BF60">
         <v>582.83000000000004</v>
@@ -37764,7 +37764,7 @@
         <v>1628188862.5999999</v>
       </c>
       <c r="DW60" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="DX60">
         <v>1628188859.5999999</v>
@@ -38114,16 +38114,16 @@
         <v>14056.5</v>
       </c>
       <c r="D61" t="s">
+        <v>591</v>
+      </c>
+      <c r="E61" t="s">
         <v>592</v>
       </c>
-      <c r="E61" t="s">
-        <v>593</v>
-      </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H61" t="s">
         <v>27</v>
@@ -38264,7 +38264,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AT61">
         <v>10361.700000000001</v>
@@ -38307,7 +38307,7 @@
         <v>259.1144346446722</v>
       </c>
       <c r="BE61" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BF61">
         <v>581.16</v>
@@ -38529,7 +38529,7 @@
         <v>1628188992.0999999</v>
       </c>
       <c r="DW61" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="DX61">
         <v>1628188992.0999999</v>
@@ -38879,16 +38879,16 @@
         <v>14208</v>
       </c>
       <c r="D62" t="s">
+        <v>596</v>
+      </c>
+      <c r="E62" t="s">
         <v>597</v>
       </c>
-      <c r="E62" t="s">
-        <v>598</v>
-      </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H62" t="s">
         <v>27</v>
@@ -39029,7 +39029,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS62" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AT62">
         <v>10363.5</v>
@@ -39072,7 +39072,7 @@
         <v>259.25875191824133</v>
       </c>
       <c r="BE62" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BF62">
         <v>582.01</v>
@@ -39294,7 +39294,7 @@
         <v>1628189138.0999999</v>
       </c>
       <c r="DW62" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="DX62">
         <v>1628189138.0999999</v>
@@ -39644,16 +39644,16 @@
         <v>14345</v>
       </c>
       <c r="D63" t="s">
+        <v>601</v>
+      </c>
+      <c r="E63" t="s">
         <v>602</v>
       </c>
-      <c r="E63" t="s">
-        <v>603</v>
-      </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H63" t="s">
         <v>27</v>
@@ -39794,7 +39794,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS63" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT63">
         <v>10360.4</v>
@@ -39837,7 +39837,7 @@
         <v>258.89400348831987</v>
       </c>
       <c r="BE63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="BF63">
         <v>579.91999999999996</v>
@@ -40059,7 +40059,7 @@
         <v>1628189274.5999999</v>
       </c>
       <c r="DW63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="DX63">
         <v>1628189274.5999999</v>
@@ -40409,16 +40409,16 @@
         <v>14472</v>
       </c>
       <c r="D64" t="s">
+        <v>606</v>
+      </c>
+      <c r="E64" t="s">
         <v>607</v>
       </c>
-      <c r="E64" t="s">
-        <v>608</v>
-      </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H64" t="s">
         <v>27</v>
@@ -40559,7 +40559,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AT64">
         <v>10356.5</v>
@@ -40602,7 +40602,7 @@
         <v>257.85498312761166</v>
       </c>
       <c r="BE64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BF64">
         <v>574.66999999999996</v>
@@ -40824,7 +40824,7 @@
         <v>1628189403.5999999</v>
       </c>
       <c r="DW64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="DX64">
         <v>1628189403.5999999</v>

--- a/inst/extdata/c3_aci_2.xlsx
+++ b/inst/extdata/c3_aci_2.xlsx
@@ -13,88 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
-    <sheet name="Remarks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="612">
-  <si>
-    <t>File opened</t>
-  </si>
-  <si>
-    <t>2021-08-04 09:23:36</t>
-  </si>
-  <si>
-    <t>Console s/n</t>
-  </si>
-  <si>
-    <t>68C-831537</t>
-  </si>
-  <si>
-    <t>Console ver</t>
-  </si>
-  <si>
-    <t>Bluestem v.1.5.02</t>
-  </si>
-  <si>
-    <t>Scripts ver</t>
-  </si>
-  <si>
-    <t>2021.03  1.5.02, Feb 2021</t>
-  </si>
-  <si>
-    <t>Head s/n</t>
-  </si>
-  <si>
-    <t>68H-891537</t>
-  </si>
-  <si>
-    <t>Head ver</t>
-  </si>
-  <si>
-    <t>1.4.5</t>
-  </si>
-  <si>
-    <t>Head cal</t>
-  </si>
-  <si>
-    <t>{"flowmeterzero": "0.996641", "h2oaspan2b": "0.0655072", "oxygen": "21", "h2obspanconc2": "0", "flowbzero": "0.37823", "ssa_ref": "31255.1", "h2obzero": "1.10814", "ssb_ref": "32230.3", "co2aspan1": "1.00059", "co2aspan2": "-0.0336092", "co2bspanconc1": "2504", "co2bspan2b": "0.282755", "h2oaspan2": "0", "h2obspan2b": "0.0656108", "co2bspanconc2": "303.2", "tbzero": "0.013916", "h2obspan2a": "0.0656292", "h2obspan1": "0.999721", "tazero": "0.0185547", "co2azero": "0.987998", "co2bspan1": "1.00039", "h2oaspanconc1": "12.32", "co2aspan2a": "0.285547", "chamberpressurezero": "2.60253", "co2aspan2b": "0.282974", "h2oaspan1": "0.99979", "co2bzero": "1.00673", "co2aspanconc1": "2504", "h2oaspanconc2": "0", "h2obspan2": "0", "flowazero": "0.34506", "co2bspan2": "-0.0332885", "co2bspan2a": "0.285354", "h2obspanconc1": "12.32", "co2aspanconc2": "303.2", "h2oaspan2a": "0.0655209", "h2oazero": "1.10524"}</t>
-  </si>
-  <si>
-    <t>Chamber type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="588">
   <si>
     <t>6800-01A</t>
-  </si>
-  <si>
-    <t>Chamber s/n</t>
-  </si>
-  <si>
-    <t>MPF-651432</t>
-  </si>
-  <si>
-    <t>Chamber rev</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Chamber cal</t>
-  </si>
-  <si>
-    <t>Fluorometer</t>
-  </si>
-  <si>
-    <t>Flr. Version</t>
-  </si>
-  <si>
-    <t>09:23:36</t>
-  </si>
-  <si>
-    <t>Stability Definition:	gsw (GasEx): Slp&lt;0.2 Std&lt;0.02 Per=30	A (GasEx): Slp&lt;1 Std&lt;0.2 Per=30</t>
   </si>
   <si>
     <t>SysConst</t>
@@ -2207,18 +2134,18 @@
   <sheetData>
     <row r="2" spans="1:239" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:239" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -2226,45 +2153,45 @@
     </row>
     <row r="4" spans="1:239" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:239" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0.57799999999999996</v>
@@ -2293,19 +2220,19 @@
     </row>
     <row r="6" spans="1:239" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:239" x14ac:dyDescent="0.3">
@@ -2324,63 +2251,63 @@
     </row>
     <row r="8" spans="1:239" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:239" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>0.8</v>
@@ -2427,22 +2354,22 @@
     </row>
     <row r="10" spans="1:239" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:239" x14ac:dyDescent="0.3">
@@ -2464,28 +2391,28 @@
     </row>
     <row r="12" spans="1:239" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:239" x14ac:dyDescent="0.3">
@@ -2502,10 +2429,10 @@
         <v>3.11</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2513,1934 +2440,1934 @@
     </row>
     <row r="14" spans="1:239" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="R14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="S14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="X14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="Y14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="Z14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AA14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AB14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AC14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AD14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AE14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AF14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AG14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AH14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AL14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AN14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AO14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AP14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AQ14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AR14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AS14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AT14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AU14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AV14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AW14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AX14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AY14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AZ14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BA14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BB14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BC14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BD14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BE14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BF14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BG14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BH14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BI14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BJ14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BK14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BL14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BM14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BN14" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BO14" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="BP14" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="BQ14" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="BR14" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="BS14" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="BT14" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="BU14" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="BV14" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="BW14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="BX14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="BY14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="BZ14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CA14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CB14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CC14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CD14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CE14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CF14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CG14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CH14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CI14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CJ14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CK14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CL14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CM14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CN14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="CO14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CP14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CQ14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CR14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CS14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CT14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CU14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CV14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CW14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CX14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="CY14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="CZ14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DA14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DB14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DC14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DD14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DE14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DF14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DG14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DH14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DI14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DJ14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DK14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DL14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DM14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DN14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DO14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DP14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="DQ14" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="DR14" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="DS14" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="DT14" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="DU14" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="DV14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="DW14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="DX14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="DY14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="DZ14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="EA14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="EB14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="EC14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="ED14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="EE14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="EF14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="EG14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="EH14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="EI14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="EJ14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="EK14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="EL14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="EM14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="EN14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="EO14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="EP14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="EQ14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="ER14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="ES14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="ET14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="EU14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="EV14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="EW14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="EX14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="EY14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="EZ14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FA14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FB14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FC14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FD14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FE14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FF14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FG14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FH14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FI14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FJ14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FK14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="FL14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FM14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FN14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FO14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FP14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FQ14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FR14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FS14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FT14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FU14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FV14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FW14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FX14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FY14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="FZ14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="GA14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="GB14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="GC14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="GD14" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="GE14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GF14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GG14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GH14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GI14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GJ14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GK14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GL14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GM14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GN14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GO14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GP14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GQ14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GR14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GS14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GT14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GU14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GV14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GW14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="GX14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="GY14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="GZ14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HA14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HB14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HC14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HD14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HE14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HF14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HG14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HH14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HI14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HJ14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HK14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HL14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HM14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HN14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HO14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="HP14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HQ14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HR14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HS14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HT14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HU14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HV14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HW14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HX14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HY14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="HZ14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="IA14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="IB14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="IC14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="ID14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="IE14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:239" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" t="s">
+        <v>93</v>
+      </c>
+      <c r="T15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" t="s">
+        <v>96</v>
+      </c>
+      <c r="W15" t="s">
+        <v>97</v>
+      </c>
+      <c r="X15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y15" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
+      <c r="Z15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
+      <c r="AA15" t="s">
         <v>101</v>
       </c>
-      <c r="D15" t="s">
+      <c r="AB15" t="s">
         <v>102</v>
       </c>
-      <c r="E15" t="s">
+      <c r="AC15" t="s">
         <v>103</v>
       </c>
-      <c r="F15" t="s">
+      <c r="AD15" t="s">
         <v>104</v>
       </c>
-      <c r="G15" t="s">
+      <c r="AE15" t="s">
         <v>105</v>
       </c>
-      <c r="H15" t="s">
+      <c r="AF15" t="s">
         <v>106</v>
       </c>
-      <c r="I15" t="s">
+      <c r="AG15" t="s">
         <v>107</v>
       </c>
-      <c r="J15" t="s">
+      <c r="AH15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI15" t="s">
         <v>108</v>
       </c>
-      <c r="K15" t="s">
+      <c r="AJ15" t="s">
         <v>109</v>
       </c>
-      <c r="L15" t="s">
+      <c r="AK15" t="s">
         <v>110</v>
       </c>
-      <c r="M15" t="s">
+      <c r="AL15" t="s">
         <v>111</v>
       </c>
-      <c r="N15" t="s">
+      <c r="AM15" t="s">
         <v>112</v>
       </c>
-      <c r="O15" t="s">
+      <c r="AN15" t="s">
         <v>113</v>
       </c>
-      <c r="P15" t="s">
+      <c r="AO15" t="s">
         <v>114</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="AP15" t="s">
         <v>115</v>
       </c>
-      <c r="R15" t="s">
+      <c r="AQ15" t="s">
         <v>116</v>
       </c>
-      <c r="S15" t="s">
+      <c r="AR15" t="s">
         <v>117</v>
       </c>
-      <c r="T15" t="s">
+      <c r="AS15" t="s">
         <v>118</v>
       </c>
-      <c r="U15" t="s">
+      <c r="AT15" t="s">
         <v>119</v>
       </c>
-      <c r="V15" t="s">
+      <c r="AU15" t="s">
         <v>120</v>
       </c>
-      <c r="W15" t="s">
+      <c r="AV15" t="s">
         <v>121</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AW15" t="s">
         <v>122</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AX15" t="s">
         <v>123</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AY15" t="s">
         <v>124</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AZ15" t="s">
         <v>125</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="BA15" t="s">
         <v>126</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="BB15" t="s">
         <v>127</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="BC15" t="s">
         <v>128</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="BD15" t="s">
         <v>129</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="BE15" t="s">
         <v>130</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="BF15" t="s">
         <v>131</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="BG15" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>141</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>143</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>144</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW15" t="s">
         <v>84</v>
       </c>
-      <c r="AI15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY15" t="s">
+      <c r="BX15" t="s">
         <v>148</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BY15" t="s">
         <v>149</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BZ15" t="s">
         <v>150</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="CA15" t="s">
         <v>151</v>
       </c>
-      <c r="BC15" t="s">
+      <c r="CB15" t="s">
         <v>152</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="CC15" t="s">
         <v>153</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="CD15" t="s">
         <v>154</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="CE15" t="s">
         <v>155</v>
       </c>
-      <c r="BG15" t="s">
+      <c r="CF15" t="s">
         <v>156</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="CG15" t="s">
         <v>157</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="CH15" t="s">
         <v>158</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="CI15" t="s">
         <v>159</v>
       </c>
-      <c r="BK15" t="s">
+      <c r="CJ15" t="s">
         <v>160</v>
       </c>
-      <c r="BL15" t="s">
+      <c r="CK15" t="s">
         <v>161</v>
       </c>
-      <c r="BM15" t="s">
+      <c r="CL15" t="s">
         <v>162</v>
       </c>
-      <c r="BN15" t="s">
+      <c r="CM15" t="s">
         <v>163</v>
       </c>
-      <c r="BO15" t="s">
+      <c r="CN15" t="s">
         <v>164</v>
       </c>
-      <c r="BP15" t="s">
+      <c r="CO15" t="s">
         <v>165</v>
       </c>
-      <c r="BQ15" t="s">
+      <c r="CP15" t="s">
         <v>166</v>
       </c>
-      <c r="BR15" t="s">
+      <c r="CQ15" t="s">
         <v>167</v>
       </c>
-      <c r="BS15" t="s">
+      <c r="CR15" t="s">
         <v>168</v>
       </c>
-      <c r="BT15" t="s">
+      <c r="CS15" t="s">
         <v>169</v>
       </c>
-      <c r="BU15" t="s">
+      <c r="CT15" t="s">
         <v>170</v>
       </c>
-      <c r="BV15" t="s">
+      <c r="CU15" t="s">
         <v>171</v>
       </c>
-      <c r="BW15" t="s">
-        <v>108</v>
-      </c>
-      <c r="BX15" t="s">
+      <c r="CV15" t="s">
         <v>172</v>
       </c>
-      <c r="BY15" t="s">
+      <c r="CW15" t="s">
         <v>173</v>
       </c>
-      <c r="BZ15" t="s">
+      <c r="CX15" t="s">
         <v>174</v>
       </c>
-      <c r="CA15" t="s">
+      <c r="CY15" t="s">
         <v>175</v>
       </c>
-      <c r="CB15" t="s">
+      <c r="CZ15" t="s">
         <v>176</v>
       </c>
-      <c r="CC15" t="s">
+      <c r="DA15" t="s">
         <v>177</v>
       </c>
-      <c r="CD15" t="s">
+      <c r="DB15" t="s">
         <v>178</v>
       </c>
-      <c r="CE15" t="s">
+      <c r="DC15" t="s">
         <v>179</v>
       </c>
-      <c r="CF15" t="s">
+      <c r="DD15" t="s">
         <v>180</v>
       </c>
-      <c r="CG15" t="s">
+      <c r="DE15" t="s">
         <v>181</v>
       </c>
-      <c r="CH15" t="s">
+      <c r="DF15" t="s">
         <v>182</v>
       </c>
-      <c r="CI15" t="s">
+      <c r="DG15" t="s">
         <v>183</v>
       </c>
-      <c r="CJ15" t="s">
+      <c r="DH15" t="s">
         <v>184</v>
       </c>
-      <c r="CK15" t="s">
+      <c r="DI15" t="s">
         <v>185</v>
       </c>
-      <c r="CL15" t="s">
+      <c r="DJ15" t="s">
         <v>186</v>
       </c>
-      <c r="CM15" t="s">
+      <c r="DK15" t="s">
         <v>187</v>
       </c>
-      <c r="CN15" t="s">
+      <c r="DL15" t="s">
         <v>188</v>
       </c>
-      <c r="CO15" t="s">
+      <c r="DM15" t="s">
         <v>189</v>
       </c>
-      <c r="CP15" t="s">
+      <c r="DN15" t="s">
         <v>190</v>
       </c>
-      <c r="CQ15" t="s">
+      <c r="DO15" t="s">
         <v>191</v>
       </c>
-      <c r="CR15" t="s">
+      <c r="DP15" t="s">
         <v>192</v>
       </c>
-      <c r="CS15" t="s">
+      <c r="DQ15" t="s">
         <v>193</v>
       </c>
-      <c r="CT15" t="s">
+      <c r="DR15" t="s">
         <v>194</v>
       </c>
-      <c r="CU15" t="s">
+      <c r="DS15" t="s">
         <v>195</v>
       </c>
-      <c r="CV15" t="s">
+      <c r="DT15" t="s">
         <v>196</v>
       </c>
-      <c r="CW15" t="s">
+      <c r="DU15" t="s">
         <v>197</v>
       </c>
-      <c r="CX15" t="s">
+      <c r="DV15" t="s">
+        <v>76</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>79</v>
+      </c>
+      <c r="DX15" t="s">
         <v>198</v>
       </c>
-      <c r="CY15" t="s">
+      <c r="DY15" t="s">
         <v>199</v>
       </c>
-      <c r="CZ15" t="s">
+      <c r="DZ15" t="s">
         <v>200</v>
       </c>
-      <c r="DA15" t="s">
+      <c r="EA15" t="s">
         <v>201</v>
       </c>
-      <c r="DB15" t="s">
+      <c r="EB15" t="s">
         <v>202</v>
       </c>
-      <c r="DC15" t="s">
+      <c r="EC15" t="s">
         <v>203</v>
       </c>
-      <c r="DD15" t="s">
+      <c r="ED15" t="s">
         <v>204</v>
       </c>
-      <c r="DE15" t="s">
+      <c r="EE15" t="s">
         <v>205</v>
       </c>
-      <c r="DF15" t="s">
+      <c r="EF15" t="s">
         <v>206</v>
       </c>
-      <c r="DG15" t="s">
+      <c r="EG15" t="s">
         <v>207</v>
       </c>
-      <c r="DH15" t="s">
+      <c r="EH15" t="s">
         <v>208</v>
       </c>
-      <c r="DI15" t="s">
+      <c r="EI15" t="s">
         <v>209</v>
       </c>
-      <c r="DJ15" t="s">
+      <c r="EJ15" t="s">
         <v>210</v>
       </c>
-      <c r="DK15" t="s">
+      <c r="EK15" t="s">
         <v>211</v>
       </c>
-      <c r="DL15" t="s">
+      <c r="EL15" t="s">
         <v>212</v>
       </c>
-      <c r="DM15" t="s">
+      <c r="EM15" t="s">
         <v>213</v>
       </c>
-      <c r="DN15" t="s">
+      <c r="EN15" t="s">
         <v>214</v>
       </c>
-      <c r="DO15" t="s">
+      <c r="EO15" t="s">
         <v>215</v>
       </c>
-      <c r="DP15" t="s">
+      <c r="EP15" t="s">
         <v>216</v>
       </c>
-      <c r="DQ15" t="s">
+      <c r="EQ15" t="s">
         <v>217</v>
       </c>
-      <c r="DR15" t="s">
+      <c r="ER15" t="s">
         <v>218</v>
       </c>
-      <c r="DS15" t="s">
+      <c r="ES15" t="s">
         <v>219</v>
       </c>
-      <c r="DT15" t="s">
+      <c r="ET15" t="s">
         <v>220</v>
       </c>
-      <c r="DU15" t="s">
+      <c r="EU15" t="s">
         <v>221</v>
       </c>
-      <c r="DV15" t="s">
-        <v>100</v>
-      </c>
-      <c r="DW15" t="s">
-        <v>103</v>
-      </c>
-      <c r="DX15" t="s">
+      <c r="EV15" t="s">
         <v>222</v>
       </c>
-      <c r="DY15" t="s">
+      <c r="EW15" t="s">
         <v>223</v>
       </c>
-      <c r="DZ15" t="s">
+      <c r="EX15" t="s">
         <v>224</v>
       </c>
-      <c r="EA15" t="s">
+      <c r="EY15" t="s">
         <v>225</v>
       </c>
-      <c r="EB15" t="s">
+      <c r="EZ15" t="s">
         <v>226</v>
       </c>
-      <c r="EC15" t="s">
+      <c r="FA15" t="s">
         <v>227</v>
       </c>
-      <c r="ED15" t="s">
+      <c r="FB15" t="s">
         <v>228</v>
       </c>
-      <c r="EE15" t="s">
+      <c r="FC15" t="s">
         <v>229</v>
       </c>
-      <c r="EF15" t="s">
+      <c r="FD15" t="s">
         <v>230</v>
       </c>
-      <c r="EG15" t="s">
+      <c r="FE15" t="s">
         <v>231</v>
       </c>
-      <c r="EH15" t="s">
+      <c r="FF15" t="s">
         <v>232</v>
       </c>
-      <c r="EI15" t="s">
+      <c r="FG15" t="s">
         <v>233</v>
       </c>
-      <c r="EJ15" t="s">
+      <c r="FH15" t="s">
         <v>234</v>
       </c>
-      <c r="EK15" t="s">
+      <c r="FI15" t="s">
         <v>235</v>
       </c>
-      <c r="EL15" t="s">
+      <c r="FJ15" t="s">
         <v>236</v>
       </c>
-      <c r="EM15" t="s">
+      <c r="FK15" t="s">
         <v>237</v>
       </c>
-      <c r="EN15" t="s">
+      <c r="FL15" t="s">
         <v>238</v>
       </c>
-      <c r="EO15" t="s">
+      <c r="FM15" t="s">
         <v>239</v>
       </c>
-      <c r="EP15" t="s">
+      <c r="FN15" t="s">
         <v>240</v>
       </c>
-      <c r="EQ15" t="s">
+      <c r="FO15" t="s">
         <v>241</v>
       </c>
-      <c r="ER15" t="s">
+      <c r="FP15" t="s">
         <v>242</v>
       </c>
-      <c r="ES15" t="s">
+      <c r="FQ15" t="s">
         <v>243</v>
       </c>
-      <c r="ET15" t="s">
+      <c r="FR15" t="s">
         <v>244</v>
       </c>
-      <c r="EU15" t="s">
+      <c r="FS15" t="s">
         <v>245</v>
       </c>
-      <c r="EV15" t="s">
+      <c r="FT15" t="s">
         <v>246</v>
       </c>
-      <c r="EW15" t="s">
+      <c r="FU15" t="s">
         <v>247</v>
       </c>
-      <c r="EX15" t="s">
+      <c r="FV15" t="s">
         <v>248</v>
       </c>
-      <c r="EY15" t="s">
+      <c r="FW15" t="s">
         <v>249</v>
       </c>
-      <c r="EZ15" t="s">
+      <c r="FX15" t="s">
         <v>250</v>
       </c>
-      <c r="FA15" t="s">
+      <c r="FY15" t="s">
         <v>251</v>
       </c>
-      <c r="FB15" t="s">
+      <c r="FZ15" t="s">
         <v>252</v>
       </c>
-      <c r="FC15" t="s">
+      <c r="GA15" t="s">
         <v>253</v>
       </c>
-      <c r="FD15" t="s">
+      <c r="GB15" t="s">
         <v>254</v>
       </c>
-      <c r="FE15" t="s">
+      <c r="GC15" t="s">
         <v>255</v>
       </c>
-      <c r="FF15" t="s">
+      <c r="GD15" t="s">
         <v>256</v>
       </c>
-      <c r="FG15" t="s">
+      <c r="GE15" t="s">
         <v>257</v>
       </c>
-      <c r="FH15" t="s">
+      <c r="GF15" t="s">
         <v>258</v>
       </c>
-      <c r="FI15" t="s">
+      <c r="GG15" t="s">
         <v>259</v>
       </c>
-      <c r="FJ15" t="s">
+      <c r="GH15" t="s">
         <v>260</v>
       </c>
-      <c r="FK15" t="s">
+      <c r="GI15" t="s">
         <v>261</v>
       </c>
-      <c r="FL15" t="s">
+      <c r="GJ15" t="s">
         <v>262</v>
       </c>
-      <c r="FM15" t="s">
+      <c r="GK15" t="s">
         <v>263</v>
       </c>
-      <c r="FN15" t="s">
+      <c r="GL15" t="s">
         <v>264</v>
       </c>
-      <c r="FO15" t="s">
+      <c r="GM15" t="s">
         <v>265</v>
       </c>
-      <c r="FP15" t="s">
+      <c r="GN15" t="s">
         <v>266</v>
       </c>
-      <c r="FQ15" t="s">
+      <c r="GO15" t="s">
         <v>267</v>
       </c>
-      <c r="FR15" t="s">
+      <c r="GP15" t="s">
         <v>268</v>
       </c>
-      <c r="FS15" t="s">
+      <c r="GQ15" t="s">
         <v>269</v>
       </c>
-      <c r="FT15" t="s">
+      <c r="GR15" t="s">
         <v>270</v>
       </c>
-      <c r="FU15" t="s">
+      <c r="GS15" t="s">
         <v>271</v>
       </c>
-      <c r="FV15" t="s">
+      <c r="GT15" t="s">
         <v>272</v>
       </c>
-      <c r="FW15" t="s">
+      <c r="GU15" t="s">
         <v>273</v>
       </c>
-      <c r="FX15" t="s">
+      <c r="GV15" t="s">
         <v>274</v>
       </c>
-      <c r="FY15" t="s">
+      <c r="GW15" t="s">
         <v>275</v>
       </c>
-      <c r="FZ15" t="s">
+      <c r="GX15" t="s">
         <v>276</v>
       </c>
-      <c r="GA15" t="s">
+      <c r="GY15" t="s">
         <v>277</v>
       </c>
-      <c r="GB15" t="s">
+      <c r="GZ15" t="s">
         <v>278</v>
       </c>
-      <c r="GC15" t="s">
+      <c r="HA15" t="s">
         <v>279</v>
       </c>
-      <c r="GD15" t="s">
+      <c r="HB15" t="s">
         <v>280</v>
       </c>
-      <c r="GE15" t="s">
+      <c r="HC15" t="s">
         <v>281</v>
       </c>
-      <c r="GF15" t="s">
+      <c r="HD15" t="s">
         <v>282</v>
       </c>
-      <c r="GG15" t="s">
+      <c r="HE15" t="s">
         <v>283</v>
       </c>
-      <c r="GH15" t="s">
+      <c r="HF15" t="s">
         <v>284</v>
       </c>
-      <c r="GI15" t="s">
+      <c r="HG15" t="s">
         <v>285</v>
       </c>
-      <c r="GJ15" t="s">
+      <c r="HH15" t="s">
         <v>286</v>
       </c>
-      <c r="GK15" t="s">
+      <c r="HI15" t="s">
         <v>287</v>
       </c>
-      <c r="GL15" t="s">
+      <c r="HJ15" t="s">
         <v>288</v>
       </c>
-      <c r="GM15" t="s">
+      <c r="HK15" t="s">
         <v>289</v>
       </c>
-      <c r="GN15" t="s">
+      <c r="HL15" t="s">
         <v>290</v>
       </c>
-      <c r="GO15" t="s">
+      <c r="HM15" t="s">
         <v>291</v>
       </c>
-      <c r="GP15" t="s">
+      <c r="HN15" t="s">
         <v>292</v>
       </c>
-      <c r="GQ15" t="s">
+      <c r="HO15" t="s">
         <v>293</v>
       </c>
-      <c r="GR15" t="s">
+      <c r="HP15" t="s">
         <v>294</v>
       </c>
-      <c r="GS15" t="s">
+      <c r="HQ15" t="s">
         <v>295</v>
       </c>
-      <c r="GT15" t="s">
+      <c r="HR15" t="s">
         <v>296</v>
       </c>
-      <c r="GU15" t="s">
+      <c r="HS15" t="s">
         <v>297</v>
       </c>
-      <c r="GV15" t="s">
+      <c r="HT15" t="s">
         <v>298</v>
       </c>
-      <c r="GW15" t="s">
+      <c r="HU15" t="s">
         <v>299</v>
       </c>
-      <c r="GX15" t="s">
+      <c r="HV15" t="s">
         <v>300</v>
       </c>
-      <c r="GY15" t="s">
+      <c r="HW15" t="s">
         <v>301</v>
       </c>
-      <c r="GZ15" t="s">
+      <c r="HX15" t="s">
         <v>302</v>
       </c>
-      <c r="HA15" t="s">
+      <c r="HY15" t="s">
         <v>303</v>
       </c>
-      <c r="HB15" t="s">
+      <c r="HZ15" t="s">
         <v>304</v>
       </c>
-      <c r="HC15" t="s">
+      <c r="IA15" t="s">
         <v>305</v>
       </c>
-      <c r="HD15" t="s">
+      <c r="IB15" t="s">
         <v>306</v>
       </c>
-      <c r="HE15" t="s">
+      <c r="IC15" t="s">
         <v>307</v>
       </c>
-      <c r="HF15" t="s">
+      <c r="ID15" t="s">
         <v>308</v>
       </c>
-      <c r="HG15" t="s">
+      <c r="IE15" t="s">
         <v>309</v>
-      </c>
-      <c r="HH15" t="s">
-        <v>310</v>
-      </c>
-      <c r="HI15" t="s">
-        <v>311</v>
-      </c>
-      <c r="HJ15" t="s">
-        <v>312</v>
-      </c>
-      <c r="HK15" t="s">
-        <v>313</v>
-      </c>
-      <c r="HL15" t="s">
-        <v>314</v>
-      </c>
-      <c r="HM15" t="s">
-        <v>315</v>
-      </c>
-      <c r="HN15" t="s">
-        <v>316</v>
-      </c>
-      <c r="HO15" t="s">
-        <v>317</v>
-      </c>
-      <c r="HP15" t="s">
-        <v>318</v>
-      </c>
-      <c r="HQ15" t="s">
-        <v>319</v>
-      </c>
-      <c r="HR15" t="s">
-        <v>320</v>
-      </c>
-      <c r="HS15" t="s">
-        <v>321</v>
-      </c>
-      <c r="HT15" t="s">
-        <v>322</v>
-      </c>
-      <c r="HU15" t="s">
-        <v>323</v>
-      </c>
-      <c r="HV15" t="s">
-        <v>324</v>
-      </c>
-      <c r="HW15" t="s">
-        <v>325</v>
-      </c>
-      <c r="HX15" t="s">
-        <v>326</v>
-      </c>
-      <c r="HY15" t="s">
-        <v>327</v>
-      </c>
-      <c r="HZ15" t="s">
-        <v>328</v>
-      </c>
-      <c r="IA15" t="s">
-        <v>329</v>
-      </c>
-      <c r="IB15" t="s">
-        <v>330</v>
-      </c>
-      <c r="IC15" t="s">
-        <v>331</v>
-      </c>
-      <c r="ID15" t="s">
-        <v>332</v>
-      </c>
-      <c r="IE15" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:239" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" t="s">
+        <v>310</v>
+      </c>
+      <c r="J16" t="s">
+        <v>310</v>
+      </c>
+      <c r="K16" t="s">
+        <v>311</v>
+      </c>
+      <c r="L16" t="s">
+        <v>312</v>
+      </c>
+      <c r="M16" t="s">
+        <v>313</v>
+      </c>
+      <c r="N16" t="s">
+        <v>314</v>
+      </c>
+      <c r="O16" t="s">
+        <v>314</v>
+      </c>
+      <c r="P16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" t="s">
+        <v>311</v>
+      </c>
+      <c r="S16" t="s">
+        <v>311</v>
+      </c>
+      <c r="T16" t="s">
+        <v>311</v>
+      </c>
+      <c r="U16" t="s">
+        <v>311</v>
+      </c>
+      <c r="V16" t="s">
+        <v>315</v>
+      </c>
+      <c r="W16" t="s">
+        <v>316</v>
+      </c>
+      <c r="X16" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>319</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>313</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>313</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>320</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>313</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>313</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>321</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>322</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>311</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>310</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>314</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>314</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>323</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>314</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>323</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>319</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>317</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>317</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>316</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>316</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>316</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>316</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>324</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>313</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>313</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>314</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>314</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>314</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>323</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>314</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>323</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>317</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>317</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>316</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>316</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>313</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>313</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>316</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>316</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>316</v>
+      </c>
+      <c r="DJ16" t="s">
+        <v>316</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>316</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>313</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>313</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>313</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>310</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>325</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>325</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>310</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>326</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>310</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>327</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>328</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>327</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>328</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>327</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>328</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>318</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>318</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>313</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>329</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>313</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>311</v>
+      </c>
+      <c r="EN16" t="s">
+        <v>330</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>311</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>331</v>
+      </c>
+      <c r="EU16" t="s">
+        <v>331</v>
+      </c>
+      <c r="FH16" t="s">
+        <v>331</v>
+      </c>
+      <c r="FI16" t="s">
+        <v>331</v>
+      </c>
+      <c r="FJ16" t="s">
+        <v>332</v>
+      </c>
+      <c r="FK16" t="s">
+        <v>332</v>
+      </c>
+      <c r="FL16" t="s">
+        <v>316</v>
+      </c>
+      <c r="FM16" t="s">
+        <v>316</v>
+      </c>
+      <c r="FN16" t="s">
+        <v>318</v>
+      </c>
+      <c r="FO16" t="s">
+        <v>316</v>
+      </c>
+      <c r="FP16" t="s">
+        <v>323</v>
+      </c>
+      <c r="FQ16" t="s">
+        <v>318</v>
+      </c>
+      <c r="FR16" t="s">
+        <v>318</v>
+      </c>
+      <c r="FT16" t="s">
+        <v>331</v>
+      </c>
+      <c r="FU16" t="s">
+        <v>331</v>
+      </c>
+      <c r="FV16" t="s">
+        <v>331</v>
+      </c>
+      <c r="FW16" t="s">
+        <v>331</v>
+      </c>
+      <c r="FX16" t="s">
+        <v>331</v>
+      </c>
+      <c r="FY16" t="s">
+        <v>331</v>
+      </c>
+      <c r="FZ16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GA16" t="s">
+        <v>333</v>
+      </c>
+      <c r="GB16" t="s">
         <v>334</v>
       </c>
-      <c r="C16" t="s">
-        <v>334</v>
-      </c>
-      <c r="F16" t="s">
-        <v>334</v>
-      </c>
-      <c r="J16" t="s">
-        <v>334</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="GC16" t="s">
+        <v>333</v>
+      </c>
+      <c r="GD16" t="s">
+        <v>333</v>
+      </c>
+      <c r="GE16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GF16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GG16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GH16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GI16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GJ16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GK16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GL16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GM16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GN16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GO16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GP16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GW16" t="s">
+        <v>331</v>
+      </c>
+      <c r="GX16" t="s">
+        <v>318</v>
+      </c>
+      <c r="GY16" t="s">
+        <v>318</v>
+      </c>
+      <c r="GZ16" t="s">
+        <v>327</v>
+      </c>
+      <c r="HA16" t="s">
+        <v>328</v>
+      </c>
+      <c r="HB16" t="s">
+        <v>328</v>
+      </c>
+      <c r="HF16" t="s">
+        <v>328</v>
+      </c>
+      <c r="HJ16" t="s">
+        <v>314</v>
+      </c>
+      <c r="HK16" t="s">
+        <v>314</v>
+      </c>
+      <c r="HL16" t="s">
+        <v>323</v>
+      </c>
+      <c r="HM16" t="s">
+        <v>323</v>
+      </c>
+      <c r="HN16" t="s">
         <v>335</v>
       </c>
-      <c r="L16" t="s">
-        <v>336</v>
-      </c>
-      <c r="M16" t="s">
-        <v>337</v>
-      </c>
-      <c r="N16" t="s">
-        <v>338</v>
-      </c>
-      <c r="O16" t="s">
-        <v>338</v>
-      </c>
-      <c r="P16" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>179</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="HO16" t="s">
         <v>335</v>
       </c>
-      <c r="S16" t="s">
-        <v>335</v>
-      </c>
-      <c r="T16" t="s">
-        <v>335</v>
-      </c>
-      <c r="U16" t="s">
-        <v>335</v>
-      </c>
-      <c r="V16" t="s">
-        <v>339</v>
-      </c>
-      <c r="W16" t="s">
-        <v>340</v>
-      </c>
-      <c r="X16" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>339</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>339</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>339</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>342</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>342</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>343</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>337</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>337</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>337</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>337</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>344</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>337</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>337</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>345</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>346</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>335</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>334</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>338</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>338</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>347</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>347</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>338</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>347</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>343</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>341</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>341</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>340</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>340</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>340</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>340</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>340</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>348</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>337</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>337</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>338</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>338</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>338</v>
-      </c>
-      <c r="CR16" t="s">
-        <v>347</v>
-      </c>
-      <c r="CS16" t="s">
-        <v>338</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>347</v>
-      </c>
-      <c r="CU16" t="s">
-        <v>341</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>341</v>
-      </c>
-      <c r="CW16" t="s">
-        <v>340</v>
-      </c>
-      <c r="CX16" t="s">
-        <v>340</v>
-      </c>
-      <c r="CY16" t="s">
-        <v>337</v>
-      </c>
-      <c r="DD16" t="s">
-        <v>337</v>
-      </c>
-      <c r="DG16" t="s">
-        <v>340</v>
-      </c>
-      <c r="DH16" t="s">
-        <v>340</v>
-      </c>
-      <c r="DI16" t="s">
-        <v>340</v>
-      </c>
-      <c r="DJ16" t="s">
-        <v>340</v>
-      </c>
-      <c r="DK16" t="s">
-        <v>340</v>
-      </c>
-      <c r="DL16" t="s">
-        <v>337</v>
-      </c>
-      <c r="DM16" t="s">
-        <v>337</v>
-      </c>
-      <c r="DN16" t="s">
-        <v>337</v>
-      </c>
-      <c r="DO16" t="s">
-        <v>334</v>
-      </c>
-      <c r="DR16" t="s">
-        <v>349</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>349</v>
-      </c>
-      <c r="DU16" t="s">
-        <v>334</v>
-      </c>
-      <c r="DV16" t="s">
-        <v>350</v>
-      </c>
-      <c r="DX16" t="s">
-        <v>334</v>
-      </c>
-      <c r="DY16" t="s">
-        <v>334</v>
-      </c>
-      <c r="EA16" t="s">
-        <v>351</v>
-      </c>
-      <c r="EB16" t="s">
-        <v>352</v>
-      </c>
-      <c r="EC16" t="s">
-        <v>351</v>
-      </c>
-      <c r="ED16" t="s">
-        <v>352</v>
-      </c>
-      <c r="EE16" t="s">
-        <v>351</v>
-      </c>
-      <c r="EF16" t="s">
-        <v>352</v>
-      </c>
-      <c r="EG16" t="s">
-        <v>342</v>
-      </c>
-      <c r="EH16" t="s">
-        <v>342</v>
-      </c>
-      <c r="EI16" t="s">
-        <v>337</v>
-      </c>
-      <c r="EJ16" t="s">
-        <v>353</v>
-      </c>
-      <c r="EK16" t="s">
-        <v>337</v>
-      </c>
-      <c r="EM16" t="s">
-        <v>335</v>
-      </c>
-      <c r="EN16" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO16" t="s">
-        <v>335</v>
-      </c>
-      <c r="ET16" t="s">
-        <v>355</v>
-      </c>
-      <c r="EU16" t="s">
-        <v>355</v>
-      </c>
-      <c r="FH16" t="s">
-        <v>355</v>
-      </c>
-      <c r="FI16" t="s">
-        <v>355</v>
-      </c>
-      <c r="FJ16" t="s">
-        <v>356</v>
-      </c>
-      <c r="FK16" t="s">
-        <v>356</v>
-      </c>
-      <c r="FL16" t="s">
-        <v>340</v>
-      </c>
-      <c r="FM16" t="s">
-        <v>340</v>
-      </c>
-      <c r="FN16" t="s">
-        <v>342</v>
-      </c>
-      <c r="FO16" t="s">
-        <v>340</v>
-      </c>
-      <c r="FP16" t="s">
-        <v>347</v>
-      </c>
-      <c r="FQ16" t="s">
-        <v>342</v>
-      </c>
-      <c r="FR16" t="s">
-        <v>342</v>
-      </c>
-      <c r="FT16" t="s">
-        <v>355</v>
-      </c>
-      <c r="FU16" t="s">
-        <v>355</v>
-      </c>
-      <c r="FV16" t="s">
-        <v>355</v>
-      </c>
-      <c r="FW16" t="s">
-        <v>355</v>
-      </c>
-      <c r="FX16" t="s">
-        <v>355</v>
-      </c>
-      <c r="FY16" t="s">
-        <v>355</v>
-      </c>
-      <c r="FZ16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GA16" t="s">
-        <v>357</v>
-      </c>
-      <c r="GB16" t="s">
-        <v>358</v>
-      </c>
-      <c r="GC16" t="s">
-        <v>357</v>
-      </c>
-      <c r="GD16" t="s">
-        <v>357</v>
-      </c>
-      <c r="GE16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GF16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GG16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GH16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GI16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GJ16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GK16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GL16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GM16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GN16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GO16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GP16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GW16" t="s">
-        <v>355</v>
-      </c>
-      <c r="GX16" t="s">
-        <v>342</v>
-      </c>
-      <c r="GY16" t="s">
-        <v>342</v>
-      </c>
-      <c r="GZ16" t="s">
-        <v>351</v>
-      </c>
-      <c r="HA16" t="s">
-        <v>352</v>
-      </c>
-      <c r="HB16" t="s">
-        <v>352</v>
-      </c>
-      <c r="HF16" t="s">
-        <v>352</v>
-      </c>
-      <c r="HJ16" t="s">
-        <v>338</v>
-      </c>
-      <c r="HK16" t="s">
-        <v>338</v>
-      </c>
-      <c r="HL16" t="s">
-        <v>347</v>
-      </c>
-      <c r="HM16" t="s">
-        <v>347</v>
-      </c>
-      <c r="HN16" t="s">
-        <v>359</v>
-      </c>
-      <c r="HO16" t="s">
-        <v>359</v>
-      </c>
       <c r="HQ16" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="HR16" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="HS16" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="HT16" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="HU16" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="HV16" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="HW16" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="HX16" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="HY16" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="HZ16" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="IA16" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="IB16" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="IC16" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="ID16" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="IE16" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:239" x14ac:dyDescent="0.3">
@@ -4454,22 +4381,22 @@
         <v>7138.5</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H17" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I17" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J17">
         <v>1628182118.0999999</v>
@@ -4585,7 +4512,7 @@
         <v>52058.230152254684</v>
       </c>
       <c r="AM17" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN17">
         <v>10238.9</v>
@@ -4604,7 +4531,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS17" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AT17">
         <v>10230.9</v>
@@ -4647,7 +4574,7 @@
         <v>260.12716973528558</v>
       </c>
       <c r="BE17" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="BF17">
         <v>626.57000000000005</v>
@@ -4707,7 +4634,7 @@
         <v>0.5</v>
       </c>
       <c r="BU17" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV17">
         <v>2</v>
@@ -4869,7 +4796,7 @@
         <v>1628182075.0999999</v>
       </c>
       <c r="DW17" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="DX17">
         <v>1628182067.0999999</v>
@@ -4935,7 +4862,7 @@
         <v>2</v>
       </c>
       <c r="ES17" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET17">
         <v>2.9891800000000002</v>
@@ -5085,22 +5012,22 @@
         <v>0</v>
       </c>
       <c r="GQ17" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR17" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS17" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT17" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU17" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV17" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW17">
         <v>0</v>
@@ -5219,22 +5146,22 @@
         <v>7247.5</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="E18" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H18" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I18" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J18">
         <v>1628182227.0999999</v>
@@ -5350,7 +5277,7 @@
         <v>51995.190101764238</v>
       </c>
       <c r="AM18" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN18">
         <v>10238.9</v>
@@ -5369,7 +5296,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS18" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AT18">
         <v>10229.799999999999</v>
@@ -5412,7 +5339,7 @@
         <v>255.64849556262578</v>
       </c>
       <c r="BE18" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="BF18">
         <v>623.58000000000004</v>
@@ -5472,7 +5399,7 @@
         <v>0.5</v>
       </c>
       <c r="BU18" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV18">
         <v>2</v>
@@ -5634,7 +5561,7 @@
         <v>1628182188.0999999</v>
       </c>
       <c r="DW18" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="DX18">
         <v>1628182178.5999999</v>
@@ -5700,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="ES18" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET18">
         <v>2.98881</v>
@@ -5850,22 +5777,22 @@
         <v>0</v>
       </c>
       <c r="GQ18" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR18" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS18" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT18" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU18" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV18" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW18">
         <v>0</v>
@@ -5984,22 +5911,22 @@
         <v>7377</v>
       </c>
       <c r="D19" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E19" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H19" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I19" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J19">
         <v>1628182356.5999999</v>
@@ -6115,7 +6042,7 @@
         <v>51952.160078883229</v>
       </c>
       <c r="AM19" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN19">
         <v>10238.9</v>
@@ -6134,7 +6061,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS19" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="AT19">
         <v>10229.5</v>
@@ -6177,7 +6104,7 @@
         <v>252.05726788379607</v>
       </c>
       <c r="BE19" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="BF19">
         <v>622.19000000000005</v>
@@ -6237,7 +6164,7 @@
         <v>0.5</v>
       </c>
       <c r="BU19" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV19">
         <v>2</v>
@@ -6399,7 +6326,7 @@
         <v>1628182316.5999999</v>
       </c>
       <c r="DW19" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="DX19">
         <v>1628182309.0999999</v>
@@ -6465,7 +6392,7 @@
         <v>2</v>
       </c>
       <c r="ES19" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET19">
         <v>2.98895</v>
@@ -6615,22 +6542,22 @@
         <v>0</v>
       </c>
       <c r="GQ19" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR19" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS19" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT19" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU19" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV19" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW19">
         <v>0</v>
@@ -6749,22 +6676,22 @@
         <v>7467.5</v>
       </c>
       <c r="D20" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H20" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I20" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J20">
         <v>1628182447.0999999</v>
@@ -6880,7 +6807,7 @@
         <v>52054.917956742138</v>
       </c>
       <c r="AM20" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN20">
         <v>10238.9</v>
@@ -6899,7 +6826,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS20" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="AT20">
         <v>10229.1</v>
@@ -6942,7 +6869,7 @@
         <v>250.30866483318749</v>
       </c>
       <c r="BE20" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="BF20">
         <v>630.5</v>
@@ -7002,7 +6929,7 @@
         <v>0.5</v>
       </c>
       <c r="BU20" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV20">
         <v>2</v>
@@ -7164,7 +7091,7 @@
         <v>1628182479.0999999</v>
       </c>
       <c r="DW20" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="DX20">
         <v>1628182464.0999999</v>
@@ -7230,7 +7157,7 @@
         <v>2</v>
       </c>
       <c r="ES20" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET20">
         <v>2.98908</v>
@@ -7380,22 +7307,22 @@
         <v>0</v>
       </c>
       <c r="GQ20" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR20" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS20" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT20" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU20" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV20" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW20">
         <v>0</v>
@@ -7514,22 +7441,22 @@
         <v>7590.5</v>
       </c>
       <c r="D21" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E21" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H21" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I21" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J21">
         <v>1628182570.0999999</v>
@@ -7645,7 +7572,7 @@
         <v>52168.633988941459</v>
       </c>
       <c r="AM21" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN21">
         <v>10238.9</v>
@@ -7664,7 +7591,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS21" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="AT21">
         <v>10230.6</v>
@@ -7707,7 +7634,7 @@
         <v>248.90027138166332</v>
       </c>
       <c r="BE21" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="BF21">
         <v>636.46</v>
@@ -7767,7 +7694,7 @@
         <v>0.5</v>
       </c>
       <c r="BU21" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV21">
         <v>2</v>
@@ -7929,7 +7856,7 @@
         <v>1628182600.0999999</v>
       </c>
       <c r="DW21" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="DX21">
         <v>1628182591.5999999</v>
@@ -7995,7 +7922,7 @@
         <v>2</v>
       </c>
       <c r="ES21" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET21">
         <v>2.9891899999999998</v>
@@ -8145,22 +8072,22 @@
         <v>0</v>
       </c>
       <c r="GQ21" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR21" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS21" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT21" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU21" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV21" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW21">
         <v>0</v>
@@ -8279,22 +8206,22 @@
         <v>7752.5</v>
       </c>
       <c r="D22" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="E22" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H22" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I22" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J22">
         <v>1628182732.0999999</v>
@@ -8410,7 +8337,7 @@
         <v>52177.008405185974</v>
       </c>
       <c r="AM22" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN22">
         <v>10238.9</v>
@@ -8429,7 +8356,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS22" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AT22">
         <v>10232.299999999999</v>
@@ -8472,7 +8399,7 @@
         <v>247.72551471160713</v>
       </c>
       <c r="BE22" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="BF22">
         <v>638.92999999999995</v>
@@ -8532,7 +8459,7 @@
         <v>0.5</v>
       </c>
       <c r="BU22" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV22">
         <v>2</v>
@@ -8694,7 +8621,7 @@
         <v>1628182691.5999999</v>
       </c>
       <c r="DW22" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="DX22">
         <v>1628182681.0999999</v>
@@ -8760,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="ES22" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET22">
         <v>2.9894599999999998</v>
@@ -8910,22 +8837,22 @@
         <v>0</v>
       </c>
       <c r="GQ22" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR22" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS22" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT22" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU22" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV22" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW22">
         <v>0</v>
@@ -9044,22 +8971,22 @@
         <v>7856.5</v>
       </c>
       <c r="D23" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H23" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I23" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J23">
         <v>1628182836.0999999</v>
@@ -9175,7 +9102,7 @@
         <v>52201.310244972556</v>
       </c>
       <c r="AM23" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN23">
         <v>10238.9</v>
@@ -9194,7 +9121,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS23" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="AT23">
         <v>10233.299999999999</v>
@@ -9237,7 +9164,7 @@
         <v>247.00617663462231</v>
       </c>
       <c r="BE23" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="BF23">
         <v>643.83000000000004</v>
@@ -9297,7 +9224,7 @@
         <v>0.5</v>
       </c>
       <c r="BU23" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV23">
         <v>2</v>
@@ -9459,7 +9386,7 @@
         <v>1628182796.0999999</v>
       </c>
       <c r="DW23" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="DX23">
         <v>1628182795.0999999</v>
@@ -9525,7 +9452,7 @@
         <v>2</v>
       </c>
       <c r="ES23" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET23">
         <v>2.98977</v>
@@ -9675,22 +9602,22 @@
         <v>0</v>
       </c>
       <c r="GQ23" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR23" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS23" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT23" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU23" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV23" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW23">
         <v>0</v>
@@ -9809,22 +9736,22 @@
         <v>7972.5</v>
       </c>
       <c r="D24" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H24" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I24" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J24">
         <v>1628182952.0999999</v>
@@ -9940,7 +9867,7 @@
         <v>52106.816200101239</v>
       </c>
       <c r="AM24" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN24">
         <v>10238.9</v>
@@ -9959,7 +9886,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS24" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="AT24">
         <v>10234.1</v>
@@ -10002,7 +9929,7 @@
         <v>245.71324511152596</v>
       </c>
       <c r="BE24" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="BF24">
         <v>657.77</v>
@@ -10062,7 +9989,7 @@
         <v>0.5</v>
       </c>
       <c r="BU24" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV24">
         <v>2</v>
@@ -10224,7 +10151,7 @@
         <v>1628182910.0999999</v>
       </c>
       <c r="DW24" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="DX24">
         <v>1628182902.5999999</v>
@@ -10290,7 +10217,7 @@
         <v>2</v>
       </c>
       <c r="ES24" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET24">
         <v>2.9899300000000002</v>
@@ -10440,22 +10367,22 @@
         <v>0</v>
       </c>
       <c r="GQ24" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR24" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS24" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT24" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU24" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV24" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW24">
         <v>0</v>
@@ -10574,22 +10501,22 @@
         <v>8087.5</v>
       </c>
       <c r="D25" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="E25" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H25" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I25" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J25">
         <v>1628183067.0999999</v>
@@ -10705,7 +10632,7 @@
         <v>52033.737592353522</v>
       </c>
       <c r="AM25" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN25">
         <v>10238.9</v>
@@ -10724,7 +10651,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS25" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="AT25">
         <v>10234</v>
@@ -10767,7 +10694,7 @@
         <v>255.70739625247458</v>
       </c>
       <c r="BE25" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="BF25">
         <v>603.64</v>
@@ -10827,7 +10754,7 @@
         <v>0.5</v>
       </c>
       <c r="BU25" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV25">
         <v>2</v>
@@ -10989,7 +10916,7 @@
         <v>1628183027.0999999</v>
       </c>
       <c r="DW25" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="DX25">
         <v>1628183015.0999999</v>
@@ -11055,7 +10982,7 @@
         <v>2</v>
       </c>
       <c r="ES25" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET25">
         <v>2.9895499999999999</v>
@@ -11205,22 +11132,22 @@
         <v>0</v>
       </c>
       <c r="GQ25" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR25" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS25" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT25" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU25" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV25" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW25">
         <v>0</v>
@@ -11339,22 +11266,22 @@
         <v>8208.4000000953693</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="E26" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H26" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I26" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J26">
         <v>1628183188</v>
@@ -11470,7 +11397,7 @@
         <v>52154.792137111574</v>
       </c>
       <c r="AM26" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN26">
         <v>10238.9</v>
@@ -11489,7 +11416,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS26" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="AT26">
         <v>10234.1</v>
@@ -11532,7 +11459,7 @@
         <v>258.8424337692482</v>
       </c>
       <c r="BE26" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="BF26">
         <v>610.53</v>
@@ -11592,7 +11519,7 @@
         <v>0.5</v>
       </c>
       <c r="BU26" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV26">
         <v>2</v>
@@ -11754,7 +11681,7 @@
         <v>1628183146.0999999</v>
       </c>
       <c r="DW26" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="DX26">
         <v>1628183138.0999999</v>
@@ -11820,7 +11747,7 @@
         <v>2</v>
       </c>
       <c r="ES26" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET26">
         <v>2.98963</v>
@@ -11970,22 +11897,22 @@
         <v>0</v>
       </c>
       <c r="GQ26" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR26" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS26" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT26" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU26" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV26" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW26">
         <v>0</v>
@@ -12104,22 +12031,22 @@
         <v>8306.9000000953693</v>
       </c>
       <c r="D27" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="E27" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H27" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I27" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J27">
         <v>1628183286.5</v>
@@ -12235,7 +12162,7 @@
         <v>52004.342823507795</v>
       </c>
       <c r="AM27" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN27">
         <v>10238.9</v>
@@ -12254,7 +12181,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS27" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="AT27">
         <v>10235.5</v>
@@ -12297,7 +12224,7 @@
         <v>263.5222042105662</v>
       </c>
       <c r="BE27" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="BF27">
         <v>635.54999999999995</v>
@@ -12357,7 +12284,7 @@
         <v>0.5</v>
       </c>
       <c r="BU27" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV27">
         <v>2</v>
@@ -12519,7 +12446,7 @@
         <v>1628183318.5</v>
       </c>
       <c r="DW27" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="DX27">
         <v>1628183318.5</v>
@@ -12585,7 +12512,7 @@
         <v>2</v>
       </c>
       <c r="ES27" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET27">
         <v>2.9896799999999999</v>
@@ -12735,22 +12662,22 @@
         <v>0</v>
       </c>
       <c r="GQ27" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR27" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS27" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT27" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU27" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV27" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW27">
         <v>0</v>
@@ -12869,22 +12796,22 @@
         <v>8519.9000000953693</v>
       </c>
       <c r="D28" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="E28" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H28" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I28" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J28">
         <v>1628183499.5</v>
@@ -13000,7 +12927,7 @@
         <v>52139.23104852868</v>
       </c>
       <c r="AM28" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN28">
         <v>10238.9</v>
@@ -13019,7 +12946,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS28" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="AT28">
         <v>10234.4</v>
@@ -13062,7 +12989,7 @@
         <v>264.49135290175468</v>
       </c>
       <c r="BE28" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="BF28">
         <v>642.23</v>
@@ -13122,7 +13049,7 @@
         <v>0.5</v>
       </c>
       <c r="BU28" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV28">
         <v>2</v>
@@ -13284,7 +13211,7 @@
         <v>1628183384.5</v>
       </c>
       <c r="DW28" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="DX28">
         <v>1628183381.5</v>
@@ -13350,7 +13277,7 @@
         <v>2</v>
       </c>
       <c r="ES28" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="ET28">
         <v>2.9900199999999999</v>
@@ -13500,22 +13427,22 @@
         <v>0</v>
       </c>
       <c r="GQ28" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR28" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS28" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT28" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU28" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV28" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW28">
         <v>0</v>
@@ -13634,22 +13561,22 @@
         <v>8692.9000000953693</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="E29" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H29" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I29" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J29">
         <v>1628183672.5</v>
@@ -13765,7 +13692,7 @@
         <v>51837.57759101627</v>
       </c>
       <c r="AM29" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN29">
         <v>10238.9</v>
@@ -13784,7 +13711,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS29" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="AT29">
         <v>10235.700000000001</v>
@@ -13827,7 +13754,7 @@
         <v>265.26423143184149</v>
       </c>
       <c r="BE29" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="BF29">
         <v>644.49</v>
@@ -13887,7 +13814,7 @@
         <v>0.5</v>
       </c>
       <c r="BU29" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV29">
         <v>2</v>
@@ -14049,7 +13976,7 @@
         <v>1628183713</v>
       </c>
       <c r="DW29" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="DX29">
         <v>1628183713</v>
@@ -14115,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="ES29" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET29">
         <v>2.9904199999999999</v>
@@ -14265,22 +14192,22 @@
         <v>0</v>
       </c>
       <c r="GQ29" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR29" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS29" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT29" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU29" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV29" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW29">
         <v>0</v>
@@ -14399,22 +14326,22 @@
         <v>8842.4000000953693</v>
       </c>
       <c r="D30" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="E30" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H30" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I30" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J30">
         <v>1628183822</v>
@@ -14530,7 +14457,7 @@
         <v>52079.447127635991</v>
       </c>
       <c r="AM30" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN30">
         <v>10238.9</v>
@@ -14549,7 +14476,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS30" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="AT30">
         <v>10236</v>
@@ -14592,7 +14519,7 @@
         <v>265.95581515233823</v>
       </c>
       <c r="BE30" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="BF30">
         <v>643.44000000000005</v>
@@ -14652,7 +14579,7 @@
         <v>0.5</v>
       </c>
       <c r="BU30" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV30">
         <v>2</v>
@@ -14814,7 +14741,7 @@
         <v>1628183773</v>
       </c>
       <c r="DW30" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="DX30">
         <v>1628183773</v>
@@ -14880,7 +14807,7 @@
         <v>2</v>
       </c>
       <c r="ES30" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET30">
         <v>2.9904199999999999</v>
@@ -15030,22 +14957,22 @@
         <v>0</v>
       </c>
       <c r="GQ30" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR30" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS30" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT30" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU30" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV30" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW30">
         <v>0</v>
@@ -15164,22 +15091,22 @@
         <v>8969.9000000953693</v>
       </c>
       <c r="D31" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="E31" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H31" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I31" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J31">
         <v>1628183949.5</v>
@@ -15295,7 +15222,7 @@
         <v>52362.250325308087</v>
       </c>
       <c r="AM31" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN31">
         <v>10238.9</v>
@@ -15314,7 +15241,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS31" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="AT31">
         <v>10236.4</v>
@@ -15357,7 +15284,7 @@
         <v>262.99153356374529</v>
       </c>
       <c r="BE31" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="BF31">
         <v>627.69000000000005</v>
@@ -15417,7 +15344,7 @@
         <v>0.5</v>
       </c>
       <c r="BU31" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV31">
         <v>2</v>
@@ -15579,7 +15506,7 @@
         <v>1628183900.5</v>
       </c>
       <c r="DW31" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="DX31">
         <v>1628183900.5</v>
@@ -15645,7 +15572,7 @@
         <v>2</v>
       </c>
       <c r="ES31" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET31">
         <v>2.9906700000000002</v>
@@ -15795,22 +15722,22 @@
         <v>0</v>
       </c>
       <c r="GQ31" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR31" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS31" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT31" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU31" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV31" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW31">
         <v>0</v>
@@ -15929,22 +15856,22 @@
         <v>9086.9000000953693</v>
       </c>
       <c r="D32" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="E32" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H32" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I32" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J32">
         <v>1628184066.5</v>
@@ -16060,7 +15987,7 @@
         <v>52280.425975911858</v>
       </c>
       <c r="AM32" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN32">
         <v>10238.9</v>
@@ -16079,7 +16006,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS32" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="AT32">
         <v>10236.1</v>
@@ -16122,7 +16049,7 @@
         <v>259.19667335569619</v>
       </c>
       <c r="BE32" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="BF32">
         <v>611.64</v>
@@ -16182,7 +16109,7 @@
         <v>0.5</v>
       </c>
       <c r="BU32" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV32">
         <v>2</v>
@@ -16344,7 +16271,7 @@
         <v>1628184020</v>
       </c>
       <c r="DW32" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="DX32">
         <v>1628184020</v>
@@ -16410,7 +16337,7 @@
         <v>2</v>
       </c>
       <c r="ES32" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET32">
         <v>2.9905599999999999</v>
@@ -16560,22 +16487,22 @@
         <v>0</v>
       </c>
       <c r="GQ32" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR32" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS32" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT32" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU32" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV32" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW32">
         <v>0</v>
@@ -16694,22 +16621,22 @@
         <v>9762.9000000953693</v>
       </c>
       <c r="D33" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="E33" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H33" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I33" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J33">
         <v>1628184742.5</v>
@@ -16825,7 +16752,7 @@
         <v>52098.060690395112</v>
       </c>
       <c r="AM33" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN33">
         <v>10238.9</v>
@@ -16844,7 +16771,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS33" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="AT33">
         <v>10231.200000000001</v>
@@ -16887,7 +16814,7 @@
         <v>259.05679071758863</v>
       </c>
       <c r="BE33" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="BF33">
         <v>636.64</v>
@@ -16947,7 +16874,7 @@
         <v>0.5</v>
       </c>
       <c r="BU33" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV33">
         <v>2</v>
@@ -17109,7 +17036,7 @@
         <v>1628184705</v>
       </c>
       <c r="DW33" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="DX33">
         <v>1628184703</v>
@@ -17175,7 +17102,7 @@
         <v>2</v>
       </c>
       <c r="ES33" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET33">
         <v>2.9888699999999999</v>
@@ -17325,22 +17252,22 @@
         <v>0</v>
       </c>
       <c r="GQ33" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR33" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS33" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT33" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU33" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV33" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW33">
         <v>0</v>
@@ -17459,22 +17386,22 @@
         <v>9874</v>
       </c>
       <c r="D34" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="E34" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H34" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I34" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J34">
         <v>1628184853.5999999</v>
@@ -17590,7 +17517,7 @@
         <v>51978.755172364719</v>
       </c>
       <c r="AM34" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN34">
         <v>10238.9</v>
@@ -17609,7 +17536,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS34" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="AT34">
         <v>10227.799999999999</v>
@@ -17652,7 +17579,7 @@
         <v>254.77580750033593</v>
       </c>
       <c r="BE34" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="BF34">
         <v>622.79</v>
@@ -17712,7 +17639,7 @@
         <v>0.5</v>
       </c>
       <c r="BU34" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV34">
         <v>2</v>
@@ -17874,7 +17801,7 @@
         <v>1628184816.5999999</v>
       </c>
       <c r="DW34" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="DX34">
         <v>1628184811.5999999</v>
@@ -17940,7 +17867,7 @@
         <v>2</v>
       </c>
       <c r="ES34" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET34">
         <v>2.9887000000000001</v>
@@ -18090,22 +18017,22 @@
         <v>0</v>
       </c>
       <c r="GQ34" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR34" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS34" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT34" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU34" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV34" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW34">
         <v>0</v>
@@ -18224,22 +18151,22 @@
         <v>9992</v>
       </c>
       <c r="D35" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="E35" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H35" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I35" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J35">
         <v>1628184971.5999999</v>
@@ -18355,7 +18282,7 @@
         <v>51969.85722587585</v>
       </c>
       <c r="AM35" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN35">
         <v>10238.9</v>
@@ -18374,7 +18301,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS35" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="AT35">
         <v>10224.799999999999</v>
@@ -18417,7 +18344,7 @@
         <v>251.05167237961271</v>
       </c>
       <c r="BE35" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="BF35">
         <v>626.98</v>
@@ -18477,7 +18404,7 @@
         <v>0.5</v>
       </c>
       <c r="BU35" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV35">
         <v>2</v>
@@ -18639,7 +18566,7 @@
         <v>1628184933.0999999</v>
       </c>
       <c r="DW35" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="DX35">
         <v>1628184924.0999999</v>
@@ -18705,7 +18632,7 @@
         <v>2</v>
       </c>
       <c r="ES35" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET35">
         <v>2.9881500000000001</v>
@@ -18855,22 +18782,22 @@
         <v>0</v>
       </c>
       <c r="GQ35" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR35" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS35" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT35" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU35" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV35" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW35">
         <v>0</v>
@@ -18989,22 +18916,22 @@
         <v>10127</v>
       </c>
       <c r="D36" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="E36" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H36" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I36" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J36">
         <v>1628185106.5999999</v>
@@ -19120,7 +19047,7 @@
         <v>52147.21838859663</v>
       </c>
       <c r="AM36" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN36">
         <v>10238.9</v>
@@ -19139,7 +19066,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS36" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="AT36">
         <v>10222.200000000001</v>
@@ -19182,7 +19109,7 @@
         <v>248.69213363533615</v>
       </c>
       <c r="BE36" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="BF36">
         <v>621.62</v>
@@ -19242,7 +19169,7 @@
         <v>0.5</v>
       </c>
       <c r="BU36" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV36">
         <v>2</v>
@@ -19404,7 +19331,7 @@
         <v>1628185067.0999999</v>
       </c>
       <c r="DW36" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="DX36">
         <v>1628185054.0999999</v>
@@ -19470,7 +19397,7 @@
         <v>2</v>
       </c>
       <c r="ES36" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET36">
         <v>2.98807</v>
@@ -19620,22 +19547,22 @@
         <v>0</v>
       </c>
       <c r="GQ36" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR36" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS36" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT36" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU36" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV36" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW36">
         <v>0</v>
@@ -19754,22 +19681,22 @@
         <v>10253</v>
       </c>
       <c r="D37" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="E37" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H37" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I37" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J37">
         <v>1628185232.5999999</v>
@@ -19885,7 +19812,7 @@
         <v>51957.22543350148</v>
       </c>
       <c r="AM37" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN37">
         <v>10238.9</v>
@@ -19904,7 +19831,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS37" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="AT37">
         <v>10221.799999999999</v>
@@ -19947,7 +19874,7 @@
         <v>247.14718913540889</v>
       </c>
       <c r="BE37" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="BF37">
         <v>625.66</v>
@@ -20007,7 +19934,7 @@
         <v>0.5</v>
       </c>
       <c r="BU37" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV37">
         <v>2</v>
@@ -20169,7 +20096,7 @@
         <v>1628185195.5999999</v>
       </c>
       <c r="DW37" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="DX37">
         <v>1628185189.5999999</v>
@@ -20235,7 +20162,7 @@
         <v>2</v>
       </c>
       <c r="ES37" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET37">
         <v>2.98821</v>
@@ -20385,22 +20312,22 @@
         <v>0</v>
       </c>
       <c r="GQ37" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR37" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS37" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT37" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU37" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV37" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW37">
         <v>0</v>
@@ -20519,22 +20446,22 @@
         <v>10358</v>
       </c>
       <c r="D38" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="E38" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H38" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I38" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J38">
         <v>1628185337.5999999</v>
@@ -20650,7 +20577,7 @@
         <v>52294.722035218903</v>
       </c>
       <c r="AM38" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN38">
         <v>10238.9</v>
@@ -20669,7 +20596,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS38" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="AT38">
         <v>10222.299999999999</v>
@@ -20712,7 +20639,7 @@
         <v>246.08745157497424</v>
       </c>
       <c r="BE38" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="BF38">
         <v>627.41</v>
@@ -20772,7 +20699,7 @@
         <v>0.5</v>
       </c>
       <c r="BU38" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV38">
         <v>2</v>
@@ -20934,7 +20861,7 @@
         <v>1628185298.0999999</v>
       </c>
       <c r="DW38" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="DX38">
         <v>1628185290.5999999</v>
@@ -21000,7 +20927,7 @@
         <v>2</v>
       </c>
       <c r="ES38" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET38">
         <v>2.9885899999999999</v>
@@ -21150,22 +21077,22 @@
         <v>0</v>
       </c>
       <c r="GQ38" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR38" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS38" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT38" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU38" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV38" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW38">
         <v>0</v>
@@ -21284,22 +21211,22 @@
         <v>10470</v>
       </c>
       <c r="D39" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="E39" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H39" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J39">
         <v>1628185449.5999999</v>
@@ -21415,7 +21342,7 @@
         <v>52123.187705131902</v>
       </c>
       <c r="AM39" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN39">
         <v>10238.9</v>
@@ -21434,7 +21361,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS39" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="AT39">
         <v>10224</v>
@@ -21477,7 +21404,7 @@
         <v>245.02861077592402</v>
       </c>
       <c r="BE39" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="BF39">
         <v>623.45000000000005</v>
@@ -21537,7 +21464,7 @@
         <v>0.5</v>
       </c>
       <c r="BU39" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV39">
         <v>2</v>
@@ -21699,7 +21626,7 @@
         <v>1628185410.0999999</v>
       </c>
       <c r="DW39" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="DX39">
         <v>1628185402.0999999</v>
@@ -21765,7 +21692,7 @@
         <v>2</v>
       </c>
       <c r="ES39" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET39">
         <v>2.9889399999999999</v>
@@ -21915,22 +21842,22 @@
         <v>0</v>
       </c>
       <c r="GQ39" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR39" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS39" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT39" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU39" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV39" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW39">
         <v>0</v>
@@ -22049,22 +21976,22 @@
         <v>10576.5</v>
       </c>
       <c r="D40" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="E40" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H40" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I40" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J40">
         <v>1628185556.0999999</v>
@@ -22180,7 +22107,7 @@
         <v>52175.850001681079</v>
       </c>
       <c r="AM40" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN40">
         <v>10238.9</v>
@@ -22199,7 +22126,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS40" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="AT40">
         <v>10224.4</v>
@@ -22242,7 +22169,7 @@
         <v>244.01483271866974</v>
       </c>
       <c r="BE40" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="BF40">
         <v>630.64</v>
@@ -22302,7 +22229,7 @@
         <v>0.5</v>
       </c>
       <c r="BU40" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV40">
         <v>2</v>
@@ -22464,7 +22391,7 @@
         <v>1628185516.0999999</v>
       </c>
       <c r="DW40" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="DX40">
         <v>1628185513.5999999</v>
@@ -22530,7 +22457,7 @@
         <v>2</v>
       </c>
       <c r="ES40" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET40">
         <v>2.9890699999999999</v>
@@ -22680,22 +22607,22 @@
         <v>0</v>
       </c>
       <c r="GQ40" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR40" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS40" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT40" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU40" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV40" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW40">
         <v>0</v>
@@ -22814,22 +22741,22 @@
         <v>10667</v>
       </c>
       <c r="D41" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="E41" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H41" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J41">
         <v>1628185646.5999999</v>
@@ -22945,7 +22872,7 @@
         <v>51939.175555789145</v>
       </c>
       <c r="AM41" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN41">
         <v>10238.9</v>
@@ -22964,7 +22891,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS41" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AT41">
         <v>10225</v>
@@ -23007,7 +22934,7 @@
         <v>252.91710041878352</v>
       </c>
       <c r="BE41" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="BF41">
         <v>593.69000000000005</v>
@@ -23067,7 +22994,7 @@
         <v>0.5</v>
       </c>
       <c r="BU41" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV41">
         <v>2</v>
@@ -23229,7 +23156,7 @@
         <v>1628185672.5999999</v>
       </c>
       <c r="DW41" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="DX41">
         <v>1628185670.5999999</v>
@@ -23295,7 +23222,7 @@
         <v>2</v>
       </c>
       <c r="ES41" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET41">
         <v>2.9891299999999998</v>
@@ -23445,22 +23372,22 @@
         <v>0</v>
       </c>
       <c r="GQ41" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR41" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS41" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT41" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU41" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV41" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW41">
         <v>0</v>
@@ -23579,22 +23506,22 @@
         <v>10829</v>
       </c>
       <c r="D42" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="E42" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H42" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I42" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J42">
         <v>1628185808.5999999</v>
@@ -23710,7 +23637,7 @@
         <v>52117.891706195107</v>
       </c>
       <c r="AM42" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN42">
         <v>10238.9</v>
@@ -23729,7 +23656,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS42" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="AT42">
         <v>10224.200000000001</v>
@@ -23772,7 +23699,7 @@
         <v>257.52357492523214</v>
       </c>
       <c r="BE42" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="BF42">
         <v>617.33000000000004</v>
@@ -23832,7 +23759,7 @@
         <v>0.5</v>
       </c>
       <c r="BU42" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV42">
         <v>2</v>
@@ -23994,7 +23921,7 @@
         <v>1628185769.0999999</v>
       </c>
       <c r="DW42" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="DX42">
         <v>1628185764.0999999</v>
@@ -24060,7 +23987,7 @@
         <v>2</v>
       </c>
       <c r="ES42" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET42">
         <v>2.9885799999999998</v>
@@ -24210,22 +24137,22 @@
         <v>0</v>
       </c>
       <c r="GQ42" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR42" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS42" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT42" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU42" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV42" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW42">
         <v>0</v>
@@ -24344,22 +24271,22 @@
         <v>10951</v>
       </c>
       <c r="D43" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="E43" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H43" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I43" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J43">
         <v>1628185930.5999999</v>
@@ -24475,7 +24402,7 @@
         <v>52195.447115872019</v>
       </c>
       <c r="AM43" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN43">
         <v>10238.9</v>
@@ -24494,7 +24421,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS43" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="AT43">
         <v>10223.1</v>
@@ -24537,7 +24464,7 @@
         <v>262.6006779019566</v>
       </c>
       <c r="BE43" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="BF43">
         <v>636.6</v>
@@ -24597,7 +24524,7 @@
         <v>0.5</v>
       </c>
       <c r="BU43" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV43">
         <v>2</v>
@@ -24759,7 +24686,7 @@
         <v>1628185887.0999999</v>
       </c>
       <c r="DW43" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="DX43">
         <v>1628185880.0999999</v>
@@ -24825,7 +24752,7 @@
         <v>2</v>
       </c>
       <c r="ES43" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET43">
         <v>2.9883199999999999</v>
@@ -24975,22 +24902,22 @@
         <v>0</v>
       </c>
       <c r="GQ43" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR43" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS43" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT43" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU43" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV43" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW43">
         <v>0</v>
@@ -25109,22 +25036,22 @@
         <v>11076</v>
       </c>
       <c r="D44" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="E44" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H44" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I44" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J44">
         <v>1628186055.5999999</v>
@@ -25240,7 +25167,7 @@
         <v>52067.290416638367</v>
       </c>
       <c r="AM44" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN44">
         <v>10238.9</v>
@@ -25259,7 +25186,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS44" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="AT44">
         <v>10221.1</v>
@@ -25302,7 +25229,7 @@
         <v>263.22714847326807</v>
       </c>
       <c r="BE44" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="BF44">
         <v>633.09</v>
@@ -25362,7 +25289,7 @@
         <v>0.5</v>
       </c>
       <c r="BU44" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV44">
         <v>2</v>
@@ -25524,7 +25451,7 @@
         <v>1628186002.0999999</v>
       </c>
       <c r="DW44" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="DX44">
         <v>1628186002.0999999</v>
@@ -25590,7 +25517,7 @@
         <v>2</v>
       </c>
       <c r="ES44" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET44">
         <v>2.9877400000000001</v>
@@ -25740,22 +25667,22 @@
         <v>0</v>
       </c>
       <c r="GQ44" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR44" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS44" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT44" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU44" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV44" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW44">
         <v>0</v>
@@ -25874,22 +25801,22 @@
         <v>11227</v>
       </c>
       <c r="D45" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="E45" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H45" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I45" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J45">
         <v>1628186206.5999999</v>
@@ -26005,7 +25932,7 @@
         <v>51976.897176754035</v>
       </c>
       <c r="AM45" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN45">
         <v>10238.9</v>
@@ -26024,7 +25951,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS45" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="AT45">
         <v>10220.5</v>
@@ -26067,7 +25994,7 @@
         <v>262.89474332226445</v>
       </c>
       <c r="BE45" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="BF45">
         <v>636.22</v>
@@ -26127,7 +26054,7 @@
         <v>0.5</v>
       </c>
       <c r="BU45" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV45">
         <v>2</v>
@@ -26289,7 +26216,7 @@
         <v>1628186116.0999999</v>
       </c>
       <c r="DW45" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="DX45">
         <v>1628186116.0999999</v>
@@ -26355,7 +26282,7 @@
         <v>2</v>
       </c>
       <c r="ES45" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET45">
         <v>2.9878900000000002</v>
@@ -26505,22 +26432,22 @@
         <v>0</v>
       </c>
       <c r="GQ45" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR45" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS45" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT45" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU45" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV45" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW45">
         <v>0</v>
@@ -26639,22 +26566,22 @@
         <v>11407.5</v>
       </c>
       <c r="D46" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="E46" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H46" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I46" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J46">
         <v>1628186387.0999999</v>
@@ -26770,7 +26697,7 @@
         <v>52034.136623430561</v>
       </c>
       <c r="AM46" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN46">
         <v>10238.9</v>
@@ -26789,7 +26716,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS46" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="AT46">
         <v>10219.9</v>
@@ -26832,7 +26759,7 @@
         <v>262.23915014987438</v>
       </c>
       <c r="BE46" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="BF46">
         <v>628.91</v>
@@ -26892,7 +26819,7 @@
         <v>0.5</v>
       </c>
       <c r="BU46" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV46">
         <v>2</v>
@@ -27054,7 +26981,7 @@
         <v>1628186277.0999999</v>
       </c>
       <c r="DW46" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="DX46">
         <v>1628186277.0999999</v>
@@ -27120,7 +27047,7 @@
         <v>2</v>
       </c>
       <c r="ES46" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="ET46">
         <v>2.9878499999999999</v>
@@ -27270,22 +27197,22 @@
         <v>0</v>
       </c>
       <c r="GQ46" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR46" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS46" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT46" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU46" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV46" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW46">
         <v>0</v>
@@ -27404,22 +27331,22 @@
         <v>11527.9000000954</v>
       </c>
       <c r="D47" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="E47" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H47" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I47" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J47">
         <v>1628186507.5</v>
@@ -27535,7 +27462,7 @@
         <v>52187.292572673046</v>
       </c>
       <c r="AM47" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN47">
         <v>10238.9</v>
@@ -27554,7 +27481,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS47" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="AT47">
         <v>10220.9</v>
@@ -27597,7 +27524,7 @@
         <v>261.66366375673061</v>
       </c>
       <c r="BE47" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="BF47">
         <v>623.59</v>
@@ -27657,7 +27584,7 @@
         <v>0.5</v>
       </c>
       <c r="BU47" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV47">
         <v>2</v>
@@ -27819,7 +27746,7 @@
         <v>1628186456.0999999</v>
       </c>
       <c r="DW47" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="DX47">
         <v>1628186456.0999999</v>
@@ -27885,7 +27812,7 @@
         <v>2</v>
       </c>
       <c r="ES47" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET47">
         <v>2.9884400000000002</v>
@@ -28035,22 +27962,22 @@
         <v>0</v>
       </c>
       <c r="GQ47" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR47" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS47" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT47" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU47" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV47" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW47">
         <v>0</v>
@@ -28169,22 +28096,22 @@
         <v>11654.4000000954</v>
       </c>
       <c r="D48" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="E48" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H48" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I48" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J48">
         <v>1628186634</v>
@@ -28300,7 +28227,7 @@
         <v>51956.058916706061</v>
       </c>
       <c r="AM48" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN48">
         <v>10238.9</v>
@@ -28319,7 +28246,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS48" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="AT48">
         <v>10219.9</v>
@@ -28362,7 +28289,7 @@
         <v>257.78629479614375</v>
       </c>
       <c r="BE48" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="BF48">
         <v>609.42999999999995</v>
@@ -28422,7 +28349,7 @@
         <v>0.5</v>
       </c>
       <c r="BU48" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV48">
         <v>2</v>
@@ -28584,7 +28511,7 @@
         <v>1628186586</v>
       </c>
       <c r="DW48" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="DX48">
         <v>1628186586</v>
@@ -28650,7 +28577,7 @@
         <v>2</v>
       </c>
       <c r="ES48" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET48">
         <v>2.9879899999999999</v>
@@ -28800,22 +28727,22 @@
         <v>0</v>
       </c>
       <c r="GQ48" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR48" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS48" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT48" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU48" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV48" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW48">
         <v>0</v>
@@ -28934,22 +28861,22 @@
         <v>12669.4000000954</v>
       </c>
       <c r="D49" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="E49" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J49">
         <v>1628187649</v>
@@ -29065,7 +28992,7 @@
         <v>52068.50642310801</v>
       </c>
       <c r="AM49" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN49">
         <v>10238.9</v>
@@ -29084,7 +29011,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS49" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="AT49">
         <v>10365.1</v>
@@ -29127,7 +29054,7 @@
         <v>256.63896830447072</v>
       </c>
       <c r="BE49" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="BF49">
         <v>577.75</v>
@@ -29187,7 +29114,7 @@
         <v>0.5</v>
       </c>
       <c r="BU49" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV49">
         <v>2</v>
@@ -29349,7 +29276,7 @@
         <v>1628187611</v>
       </c>
       <c r="DW49" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="DX49">
         <v>1628187609</v>
@@ -29415,7 +29342,7 @@
         <v>2</v>
       </c>
       <c r="ES49" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET49">
         <v>2.9902000000000002</v>
@@ -29565,22 +29492,22 @@
         <v>0</v>
       </c>
       <c r="GQ49" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR49" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS49" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT49" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU49" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV49" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW49">
         <v>0</v>
@@ -29699,22 +29626,22 @@
         <v>12826.9000000954</v>
       </c>
       <c r="D50" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="E50" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H50" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J50">
         <v>1628187806.5</v>
@@ -29830,7 +29757,7 @@
         <v>52035.029615947584</v>
       </c>
       <c r="AM50" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN50">
         <v>10238.9</v>
@@ -29849,7 +29776,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS50" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="AT50">
         <v>10366</v>
@@ -29892,7 +29819,7 @@
         <v>251.01636467302063</v>
       </c>
       <c r="BE50" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="BF50">
         <v>556.78</v>
@@ -29952,7 +29879,7 @@
         <v>0.5</v>
       </c>
       <c r="BU50" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV50">
         <v>2</v>
@@ -30114,7 +30041,7 @@
         <v>1628187768.5</v>
       </c>
       <c r="DW50" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="DX50">
         <v>1628187752.5</v>
@@ -30180,7 +30107,7 @@
         <v>2</v>
       </c>
       <c r="ES50" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET50">
         <v>2.9898600000000002</v>
@@ -30330,22 +30257,22 @@
         <v>0</v>
       </c>
       <c r="GQ50" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR50" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS50" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT50" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU50" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV50" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW50">
         <v>0</v>
@@ -30464,22 +30391,22 @@
         <v>12940.9000000954</v>
       </c>
       <c r="D51" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="E51" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H51" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J51">
         <v>1628187920.5</v>
@@ -30595,7 +30522,7 @@
         <v>52188.735418973432</v>
       </c>
       <c r="AM51" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN51">
         <v>10238.9</v>
@@ -30614,7 +30541,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS51" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="AT51">
         <v>10364.700000000001</v>
@@ -30657,7 +30584,7 @@
         <v>244.41931720036203</v>
       </c>
       <c r="BE51" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="BF51">
         <v>540.86</v>
@@ -30717,7 +30644,7 @@
         <v>0.5</v>
       </c>
       <c r="BU51" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV51">
         <v>2</v>
@@ -30879,7 +30806,7 @@
         <v>1628187882.5</v>
       </c>
       <c r="DW51" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="DX51">
         <v>1628187876</v>
@@ -30945,7 +30872,7 @@
         <v>2</v>
       </c>
       <c r="ES51" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET51">
         <v>2.9898400000000001</v>
@@ -31095,22 +31022,22 @@
         <v>0</v>
       </c>
       <c r="GQ51" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR51" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS51" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT51" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU51" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV51" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW51">
         <v>0</v>
@@ -31229,22 +31156,22 @@
         <v>13050.9000000954</v>
       </c>
       <c r="D52" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="E52" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H52" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J52">
         <v>1628188030.5</v>
@@ -31360,7 +31287,7 @@
         <v>51937.70268307197</v>
       </c>
       <c r="AM52" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN52">
         <v>10238.9</v>
@@ -31379,7 +31306,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS52" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="AT52">
         <v>10362.799999999999</v>
@@ -31422,7 +31349,7 @@
         <v>240.60508815310865</v>
       </c>
       <c r="BE52" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="BF52">
         <v>534.16</v>
@@ -31482,7 +31409,7 @@
         <v>0.5</v>
       </c>
       <c r="BU52" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV52">
         <v>2</v>
@@ -31644,7 +31571,7 @@
         <v>1628187991</v>
       </c>
       <c r="DW52" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="DX52">
         <v>1628187979</v>
@@ -31710,7 +31637,7 @@
         <v>2</v>
       </c>
       <c r="ES52" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET52">
         <v>2.9895399999999999</v>
@@ -31860,22 +31787,22 @@
         <v>0</v>
       </c>
       <c r="GQ52" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR52" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS52" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT52" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU52" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV52" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW52">
         <v>0</v>
@@ -31994,22 +31921,22 @@
         <v>13169.9000000954</v>
       </c>
       <c r="D53" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E53" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H53" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J53">
         <v>1628188149.5</v>
@@ -32125,7 +32052,7 @@
         <v>51938.872214081595</v>
       </c>
       <c r="AM53" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN53">
         <v>10238.9</v>
@@ -32144,7 +32071,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS53" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="AT53">
         <v>10360.700000000001</v>
@@ -32187,7 +32114,7 @@
         <v>237.38479209752731</v>
       </c>
       <c r="BE53" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="BF53">
         <v>535.07000000000005</v>
@@ -32247,7 +32174,7 @@
         <v>0.5</v>
       </c>
       <c r="BU53" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV53">
         <v>2</v>
@@ -32409,7 +32336,7 @@
         <v>1628188110</v>
       </c>
       <c r="DW53" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="DX53">
         <v>1628188110</v>
@@ -32475,7 +32402,7 @@
         <v>2</v>
       </c>
       <c r="ES53" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET53">
         <v>2.9895</v>
@@ -32625,22 +32552,22 @@
         <v>0</v>
       </c>
       <c r="GQ53" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR53" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS53" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT53" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU53" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV53" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW53">
         <v>0</v>
@@ -32759,22 +32686,22 @@
         <v>13278</v>
       </c>
       <c r="D54" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="E54" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J54">
         <v>1628188257.5999999</v>
@@ -32890,7 +32817,7 @@
         <v>52185.198416062856</v>
       </c>
       <c r="AM54" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN54">
         <v>10238.9</v>
@@ -32909,7 +32836,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS54" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="AT54">
         <v>10359.299999999999</v>
@@ -32952,7 +32879,7 @@
         <v>235.32538042042722</v>
       </c>
       <c r="BE54" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="BF54">
         <v>529.21</v>
@@ -33012,7 +32939,7 @@
         <v>0.5</v>
       </c>
       <c r="BU54" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV54">
         <v>2</v>
@@ -33174,7 +33101,7 @@
         <v>1628188219.5</v>
       </c>
       <c r="DW54" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="DX54">
         <v>1628188219.5</v>
@@ -33240,7 +33167,7 @@
         <v>2</v>
       </c>
       <c r="ES54" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET54">
         <v>2.9889399999999999</v>
@@ -33390,22 +33317,22 @@
         <v>0</v>
       </c>
       <c r="GQ54" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS54" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT54" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU54" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV54" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW54">
         <v>0</v>
@@ -33524,22 +33451,22 @@
         <v>13381.5</v>
       </c>
       <c r="D55" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="E55" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H55" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J55">
         <v>1628188361.0999999</v>
@@ -33655,7 +33582,7 @@
         <v>52196.665313512633</v>
       </c>
       <c r="AM55" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN55">
         <v>10238.9</v>
@@ -33674,7 +33601,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS55" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="AT55">
         <v>10357.799999999999</v>
@@ -33717,7 +33644,7 @@
         <v>233.42116300880693</v>
       </c>
       <c r="BE55" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="BF55">
         <v>541.05999999999995</v>
@@ -33777,7 +33704,7 @@
         <v>0.5</v>
       </c>
       <c r="BU55" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV55">
         <v>2</v>
@@ -33939,7 +33866,7 @@
         <v>1628188322.5999999</v>
       </c>
       <c r="DW55" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="DX55">
         <v>1628188319.0999999</v>
@@ -34005,7 +33932,7 @@
         <v>2</v>
       </c>
       <c r="ES55" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET55">
         <v>2.9887299999999999</v>
@@ -34155,22 +34082,22 @@
         <v>0</v>
       </c>
       <c r="GQ55" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR55" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS55" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT55" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU55" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV55" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW55">
         <v>0</v>
@@ -34289,22 +34216,22 @@
         <v>13488.5</v>
       </c>
       <c r="D56" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="E56" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J56">
         <v>1628188468.0999999</v>
@@ -34420,7 +34347,7 @@
         <v>51986.027841427785</v>
       </c>
       <c r="AM56" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN56">
         <v>10238.9</v>
@@ -34439,7 +34366,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS56" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="AT56">
         <v>10356.1</v>
@@ -34482,7 +34409,7 @@
         <v>231.48029916443915</v>
       </c>
       <c r="BE56" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="BF56">
         <v>540.27</v>
@@ -34542,7 +34469,7 @@
         <v>0.5</v>
       </c>
       <c r="BU56" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV56">
         <v>2</v>
@@ -34704,7 +34631,7 @@
         <v>1628188428.5999999</v>
       </c>
       <c r="DW56" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="DX56">
         <v>1628188427.5999999</v>
@@ -34770,7 +34697,7 @@
         <v>2</v>
       </c>
       <c r="ES56" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET56">
         <v>2.9885299999999999</v>
@@ -34920,22 +34847,22 @@
         <v>0</v>
       </c>
       <c r="GQ56" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR56" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS56" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT56" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU56" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV56" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW56">
         <v>0</v>
@@ -35054,22 +34981,22 @@
         <v>13603.5</v>
       </c>
       <c r="D57" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E57" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J57">
         <v>1628188583.0999999</v>
@@ -35185,7 +35112,7 @@
         <v>51896.698084053744</v>
       </c>
       <c r="AM57" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN57">
         <v>10238.9</v>
@@ -35204,7 +35131,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS57" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="AT57">
         <v>10354.799999999999</v>
@@ -35247,7 +35174,7 @@
         <v>246.37502282435938</v>
       </c>
       <c r="BE57" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="BF57">
         <v>534.41</v>
@@ -35307,7 +35234,7 @@
         <v>0.5</v>
       </c>
       <c r="BU57" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV57">
         <v>2</v>
@@ -35469,7 +35396,7 @@
         <v>1628188543.5999999</v>
       </c>
       <c r="DW57" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="DX57">
         <v>1628188538.0999999</v>
@@ -35535,7 +35462,7 @@
         <v>2</v>
       </c>
       <c r="ES57" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET57">
         <v>2.9883199999999999</v>
@@ -35685,22 +35612,22 @@
         <v>0</v>
       </c>
       <c r="GQ57" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR57" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS57" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT57" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU57" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV57" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW57">
         <v>0</v>
@@ -35819,22 +35746,22 @@
         <v>13706.5</v>
       </c>
       <c r="D58" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="E58" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H58" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J58">
         <v>1628188686.0999999</v>
@@ -35950,7 +35877,7 @@
         <v>51982.238242099644</v>
       </c>
       <c r="AM58" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN58">
         <v>10238.9</v>
@@ -35969,7 +35896,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS58" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="AT58">
         <v>10353.9</v>
@@ -36012,7 +35939,7 @@
         <v>248.96243945260423</v>
       </c>
       <c r="BE58" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="BF58">
         <v>540.25</v>
@@ -36072,7 +35999,7 @@
         <v>0.5</v>
       </c>
       <c r="BU58" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV58">
         <v>2</v>
@@ -36234,7 +36161,7 @@
         <v>1628188647.0999999</v>
       </c>
       <c r="DW58" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="DX58">
         <v>1628188645.0999999</v>
@@ -36300,7 +36227,7 @@
         <v>2</v>
       </c>
       <c r="ES58" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET58">
         <v>2.9886499999999998</v>
@@ -36450,22 +36377,22 @@
         <v>0</v>
       </c>
       <c r="GQ58" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR58" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS58" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT58" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU58" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV58" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW58">
         <v>0</v>
@@ -36584,22 +36511,22 @@
         <v>13809.5</v>
       </c>
       <c r="D59" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="E59" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H59" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J59">
         <v>1628188789.0999999</v>
@@ -36715,7 +36642,7 @@
         <v>52249.580499561431</v>
       </c>
       <c r="AM59" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN59">
         <v>10238.9</v>
@@ -36734,7 +36661,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS59" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="AT59">
         <v>10356.200000000001</v>
@@ -36777,7 +36704,7 @@
         <v>255.62254822648927</v>
       </c>
       <c r="BE59" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="BF59">
         <v>572.16</v>
@@ -36837,7 +36764,7 @@
         <v>0.5</v>
       </c>
       <c r="BU59" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV59">
         <v>2</v>
@@ -36999,7 +36926,7 @@
         <v>1628188749.5999999</v>
       </c>
       <c r="DW59" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="DX59">
         <v>1628188749.5999999</v>
@@ -37065,7 +36992,7 @@
         <v>2</v>
       </c>
       <c r="ES59" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET59">
         <v>2.9889700000000001</v>
@@ -37215,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="GQ59" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR59" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS59" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT59" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU59" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV59" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW59">
         <v>0</v>
@@ -37349,22 +37276,22 @@
         <v>13926.5</v>
       </c>
       <c r="D60" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="E60" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J60">
         <v>1628188906.0999999</v>
@@ -37480,7 +37407,7 @@
         <v>52209.488344802754</v>
       </c>
       <c r="AM60" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN60">
         <v>10238.9</v>
@@ -37499,7 +37426,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS60" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="AT60">
         <v>10359.6</v>
@@ -37542,7 +37469,7 @@
         <v>258.06242768875495</v>
       </c>
       <c r="BE60" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="BF60">
         <v>582.83000000000004</v>
@@ -37602,7 +37529,7 @@
         <v>0.5</v>
       </c>
       <c r="BU60" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV60">
         <v>2</v>
@@ -37764,7 +37691,7 @@
         <v>1628188862.5999999</v>
       </c>
       <c r="DW60" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="DX60">
         <v>1628188859.5999999</v>
@@ -37830,7 +37757,7 @@
         <v>2</v>
       </c>
       <c r="ES60" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET60">
         <v>2.9893999999999998</v>
@@ -37980,22 +37907,22 @@
         <v>0</v>
       </c>
       <c r="GQ60" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR60" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS60" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT60" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU60" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV60" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW60">
         <v>0</v>
@@ -38114,22 +38041,22 @@
         <v>14056.5</v>
       </c>
       <c r="D61" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="E61" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H61" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J61">
         <v>1628189036.0999999</v>
@@ -38245,7 +38172,7 @@
         <v>52200.792691073919</v>
       </c>
       <c r="AM61" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN61">
         <v>10238.9</v>
@@ -38264,7 +38191,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS61" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="AT61">
         <v>10361.700000000001</v>
@@ -38307,7 +38234,7 @@
         <v>259.1144346446722</v>
       </c>
       <c r="BE61" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="BF61">
         <v>581.16</v>
@@ -38367,7 +38294,7 @@
         <v>0.5</v>
       </c>
       <c r="BU61" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV61">
         <v>2</v>
@@ -38529,7 +38456,7 @@
         <v>1628188992.0999999</v>
       </c>
       <c r="DW61" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="DX61">
         <v>1628188992.0999999</v>
@@ -38595,7 +38522,7 @@
         <v>2</v>
       </c>
       <c r="ES61" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET61">
         <v>2.9899399999999998</v>
@@ -38745,22 +38672,22 @@
         <v>0</v>
       </c>
       <c r="GQ61" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR61" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS61" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT61" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU61" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV61" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW61">
         <v>0</v>
@@ -38879,22 +38806,22 @@
         <v>14208</v>
       </c>
       <c r="D62" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="E62" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J62">
         <v>1628189187.5999999</v>
@@ -39010,7 +38937,7 @@
         <v>52390.905404342782</v>
       </c>
       <c r="AM62" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN62">
         <v>10238.9</v>
@@ -39029,7 +38956,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS62" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="AT62">
         <v>10363.5</v>
@@ -39072,7 +38999,7 @@
         <v>259.25875191824133</v>
       </c>
       <c r="BE62" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="BF62">
         <v>582.01</v>
@@ -39132,7 +39059,7 @@
         <v>0.5</v>
       </c>
       <c r="BU62" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV62">
         <v>2</v>
@@ -39294,7 +39221,7 @@
         <v>1628189138.0999999</v>
       </c>
       <c r="DW62" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="DX62">
         <v>1628189138.0999999</v>
@@ -39360,7 +39287,7 @@
         <v>2</v>
       </c>
       <c r="ES62" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET62">
         <v>2.99044</v>
@@ -39510,22 +39437,22 @@
         <v>0</v>
       </c>
       <c r="GQ62" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR62" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS62" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT62" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU62" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV62" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW62">
         <v>0</v>
@@ -39644,22 +39571,22 @@
         <v>14345</v>
       </c>
       <c r="D63" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="E63" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J63">
         <v>1628189324.5999999</v>
@@ -39775,7 +39702,7 @@
         <v>52028.689682049895</v>
       </c>
       <c r="AM63" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN63">
         <v>10238.9</v>
@@ -39794,7 +39721,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS63" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="AT63">
         <v>10360.4</v>
@@ -39837,7 +39764,7 @@
         <v>258.89400348831987</v>
       </c>
       <c r="BE63" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="BF63">
         <v>579.91999999999996</v>
@@ -39897,7 +39824,7 @@
         <v>0.5</v>
       </c>
       <c r="BU63" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV63">
         <v>2</v>
@@ -40059,7 +39986,7 @@
         <v>1628189274.5999999</v>
       </c>
       <c r="DW63" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="DX63">
         <v>1628189274.5999999</v>
@@ -40125,7 +40052,7 @@
         <v>2</v>
       </c>
       <c r="ES63" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET63">
         <v>2.99064</v>
@@ -40275,22 +40202,22 @@
         <v>0</v>
       </c>
       <c r="GQ63" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR63" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS63" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT63" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU63" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV63" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW63">
         <v>0</v>
@@ -40409,22 +40336,22 @@
         <v>14472</v>
       </c>
       <c r="D64" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="E64" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H64" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J64">
         <v>1628189451.5999999</v>
@@ -40540,7 +40467,7 @@
         <v>52236.594157478183</v>
       </c>
       <c r="AM64" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AN64">
         <v>10238.9</v>
@@ -40559,7 +40486,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS64" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="AT64">
         <v>10356.5</v>
@@ -40602,7 +40529,7 @@
         <v>257.85498312761166</v>
       </c>
       <c r="BE64" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="BF64">
         <v>574.66999999999996</v>
@@ -40662,7 +40589,7 @@
         <v>0.5</v>
       </c>
       <c r="BU64" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BV64">
         <v>2</v>
@@ -40824,7 +40751,7 @@
         <v>1628189403.5999999</v>
       </c>
       <c r="DW64" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="DX64">
         <v>1628189403.5999999</v>
@@ -40890,7 +40817,7 @@
         <v>2</v>
       </c>
       <c r="ES64" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="ET64">
         <v>2.99017</v>
@@ -41040,22 +40967,22 @@
         <v>0</v>
       </c>
       <c r="GQ64" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="GR64" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="GS64" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GT64" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GU64" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GV64" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="GW64">
         <v>0</v>
@@ -41161,131 +41088,6 @@
       </c>
       <c r="IE64">
         <v>100.235</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
